--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B81C9-A1D2-4F54-97DE-EB662A743930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A09903-F5D3-42B6-9DE7-D0CD84F68D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4755" yWindow="510" windowWidth="20175" windowHeight="14970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anime_cover/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刀劍神域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +239,10 @@
   </si>
   <si>
     <t>sao.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anime_covers/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>2012</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -969,19 +969,19 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -995,19 +995,19 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1067,18 +1067,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="N14:N19"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="M20:M25"/>
@@ -1087,6 +1075,18 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="M26:M31"/>
     <mergeCell ref="N26:N31"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="N14:N19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A09903-F5D3-42B6-9DE7-D0CD84F68D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A3C4F-C37F-4EF4-965F-76FC3BA9EB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="510" windowWidth="20175" windowHeight="14970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="510" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,54 @@
   </si>
   <si>
     <t>anime_covers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怕痛的我，把防禦力點滿就對了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網遊小說、MMORPG、奇幻、戰鬥、喜劇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bofuri.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤獨搖滾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bocchi.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四格漫畫、音樂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,11 +334,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -571,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1079,516 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>2020</v>
+      </c>
+      <c r="D26">
+        <v>2023</v>
+      </c>
+      <c r="M26" s="2">
+        <v>8</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
+      <c r="C31">
+        <v>8</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32">
+        <v>2022</v>
+      </c>
+      <c r="M32" s="4">
+        <v>10</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="48">
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="M20:M25"/>
@@ -1087,6 +1609,34 @@
     <mergeCell ref="N8:N13"/>
     <mergeCell ref="M14:M19"/>
     <mergeCell ref="N14:N19"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="M38:M43"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="N44:N49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="M68:M73"/>
+    <mergeCell ref="N68:N73"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="M56:M61"/>
+    <mergeCell ref="N56:N61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="M62:M67"/>
+    <mergeCell ref="N62:N67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1096,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1696,22 @@
         <v>53</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A3C4F-C37F-4EF4-965F-76FC3BA9EB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E4797-70CE-43F4-85BF-B1749ABC3219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="510" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
   </si>
   <si>
     <t>播放日期起始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,12 +330,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -623,7 +618,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32:N37"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>20</v>
@@ -761,8 +756,8 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" t="s">
-        <v>29</v>
+      <c r="C9">
+        <v>14</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -770,8 +765,8 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="C10">
+        <v>14</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -780,7 +775,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -798,7 +793,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -887,16 +882,16 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -911,16 +906,16 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -948,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>2012</v>
@@ -969,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1018,19 +1013,19 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1044,19 +1039,19 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1083,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -1095,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1126,10 +1121,10 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1146,10 +1141,10 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1172,45 +1167,45 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>62</v>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C32">
         <v>2022</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="2">
         <v>10</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>66</v>
+      <c r="N32" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33">
         <v>12</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
       <c r="C34">
         <v>12</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1221,14 +1216,14 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1239,17 +1234,17 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37">
         <v>10</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -1589,42 +1584,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="M20:M25"/>
-    <mergeCell ref="N20:N25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="N26:N31"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="N14:N19"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="N32:N37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="M38:M43"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="M44:M49"/>
-    <mergeCell ref="N44:N49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="N50:N55"/>
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="M68:M73"/>
@@ -1637,6 +1596,42 @@
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="M62:M67"/>
     <mergeCell ref="N62:N67"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="N44:N49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="M38:M43"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="N20:N25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="N26:N31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E4797-70CE-43F4-85BF-B1749ABC3219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA01A0-73C6-4F2F-8C39-0E4B692909F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="510" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -766,7 +766,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1584,6 +1584,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="N20:N25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="N26:N31"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="N32:N37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="M38:M43"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="N44:N49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="N50:N55"/>
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="B68:B73"/>
     <mergeCell ref="M68:M73"/>
@@ -1596,42 +1632,6 @@
     <mergeCell ref="B62:B67"/>
     <mergeCell ref="M62:M67"/>
     <mergeCell ref="N62:N67"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="M44:M49"/>
-    <mergeCell ref="N44:N49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="N50:N55"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="N32:N37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="M38:M43"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="N14:N19"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="M20:M25"/>
-    <mergeCell ref="N20:N25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="N26:N31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DAA7FF-A80B-4C93-9561-A285448A306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A166E94E-F70C-4973-9A39-EBF9BF0217F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="2055" windowWidth="20175" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1245" windowWidth="20175" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>violet.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>類型</t>
   </si>
   <si>
@@ -115,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kei.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>總集數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,22 +122,10 @@
     <t>總評分</t>
   </si>
   <si>
-    <t>sao.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>anime_covers/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bofuri.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bocchi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鬼滅之刃</t>
   </si>
   <si>
@@ -170,26 +150,14 @@
     <t>四格漫畫、音樂</t>
   </si>
   <si>
-    <t>mygo.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BanG Dream! It's MyGO!!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>freelen.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>葬送的芙莉蓮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>endro.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Endro～！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,23 +166,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ikamusume.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流浪神差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>noragami.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰菓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hyouka.jpg</t>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女終末旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發條精靈戰記 天鏡的極北之星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為美好的世界獻上祝福！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨拙之極的上野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How Clumsy You Are, Miss Ueno.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KonoSuba, God's Blessing on This Wonderful World!.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alderamin on the Sky.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girls' Last Tour.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nichijou.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword Art Online.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bofuri, I Don't Want to Get Hurt, so I'll Max Out My Defense.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyouka.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demon Slayer, Kimetsu no Yaiba.jpg</t>
+  </si>
+  <si>
+    <t>Violet Evergarden.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BanG Dream! It's MyGO!!!!!.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frieren, Beyond Journey's End.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endro!.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squid Girl.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noragami, Stray God.jpg</t>
+  </si>
+  <si>
+    <t>Bocchi the Rock!.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,11 +296,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z165"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46:N49"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -614,17 +655,17 @@
         <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -633,7 +674,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -661,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -696,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -714,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -772,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -793,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -855,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -864,10 +905,10 @@
         <v>2023</v>
       </c>
       <c r="M18" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -898,7 +939,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1"/>
       <c r="M21" s="2"/>
@@ -909,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -918,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -949,137 +990,137 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C26">
         <v>2023</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="2">
         <v>8</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="3"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>41</v>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C30">
         <v>2023</v>
       </c>
-      <c r="M30" s="4">
-        <v>10</v>
-      </c>
-      <c r="N30" s="3"/>
+      <c r="M30" s="2">
+        <v>10</v>
+      </c>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31">
         <v>28</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32">
         <v>28</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>7</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>43</v>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C34">
         <v>2019</v>
       </c>
-      <c r="M34" s="4">
-        <v>9</v>
-      </c>
-      <c r="N34" s="3"/>
+      <c r="M34" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35">
         <v>12</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="3"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36">
         <v>12</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="3"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>8</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>44</v>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C38">
         <v>2010</v>
@@ -1087,53 +1128,53 @@
       <c r="D38">
         <v>2011</v>
       </c>
-      <c r="M38" s="4">
-        <v>10</v>
-      </c>
-      <c r="N38" s="3"/>
+      <c r="M38" s="2">
+        <v>10</v>
+      </c>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39">
         <v>12</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="3"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40">
         <v>12</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="3"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="3"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>9</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>46</v>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C42">
         <v>2014</v>
@@ -1141,169 +1182,548 @@
       <c r="D42">
         <v>2015</v>
       </c>
-      <c r="M42" s="4">
-        <v>10</v>
-      </c>
-      <c r="N42" s="3"/>
+      <c r="M42" s="2">
+        <v>10</v>
+      </c>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43">
         <v>12</v>
       </c>
       <c r="D43">
         <v>13</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="3"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44">
         <v>13</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="3"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45">
         <v>10</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="3"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>10</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>48</v>
+      <c r="A46" s="2">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C46">
         <v>2012</v>
       </c>
-      <c r="M46" s="4">
-        <v>10</v>
-      </c>
-      <c r="N46" s="3"/>
+      <c r="M46" s="2">
+        <v>10</v>
+      </c>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47">
         <v>22</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="3"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48">
         <v>22</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="3"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49">
         <v>10</v>
       </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="3"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="A50" s="3">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50">
+        <v>2011</v>
+      </c>
+      <c r="M50" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
+      <c r="C51">
+        <v>26</v>
+      </c>
       <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
+      <c r="C52">
+        <v>26</v>
+      </c>
       <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
+      <c r="C53">
+        <v>9.5</v>
+      </c>
       <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>12</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>2017</v>
+      </c>
+      <c r="M54" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="M56" s="7"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57">
+        <v>9.5</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>13</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>2016</v>
+      </c>
+      <c r="M58" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="M59" s="7"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61">
+        <v>9.5</v>
+      </c>
+      <c r="M61" s="7"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>14</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>2016</v>
+      </c>
+      <c r="D62">
+        <v>2017</v>
+      </c>
+      <c r="E62">
+        <v>2024</v>
+      </c>
+      <c r="M62" s="7">
+        <v>10</v>
+      </c>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>15</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>2019</v>
+      </c>
+      <c r="M66" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69">
+        <v>8.5</v>
+      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1314,6 +1734,32 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
     </row>
     <row r="134" spans="17:26" x14ac:dyDescent="0.25">
       <c r="Q134" s="1"/>
@@ -1460,24 +1906,78 @@
       <c r="Z165" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
+  <mergeCells count="100">
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
@@ -1492,31 +1992,21 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="M75:M80"/>
-    <mergeCell ref="N75:N80"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,15 +2016,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1554,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1589,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,7 +2095,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,7 +2127,47 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A166E94E-F70C-4973-9A39-EBF9BF0217F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EAA3A4-8FCF-48FE-AEA1-BFFA6845BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="1245" windowWidth="20175" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,15 +296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1266,136 +1261,136 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>11</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C50">
         <v>2011</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>9.5</v>
       </c>
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51">
         <v>26</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
       <c r="C52">
         <v>26</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
       <c r="C53">
         <v>9.5</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="2">
         <v>12</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C54">
         <v>2017</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="2">
         <v>9.5</v>
       </c>
-      <c r="N54" s="4"/>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55">
         <v>12</v>
       </c>
-      <c r="M55" s="7"/>
-      <c r="N55" s="4"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
       <c r="C56">
         <v>12</v>
       </c>
-      <c r="M56" s="7"/>
-      <c r="N56" s="4"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57">
         <v>9.5</v>
       </c>
-      <c r="M57" s="7"/>
-      <c r="N57" s="4"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="2">
         <v>13</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C58">
         <v>2016</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="2">
         <v>9.5</v>
       </c>
-      <c r="N58" s="4"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59">
         <v>13</v>
       </c>
-      <c r="M59" s="7"/>
-      <c r="N59" s="4"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60">
         <v>13</v>
       </c>
-      <c r="M60" s="7"/>
-      <c r="N60" s="4"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
       <c r="C61">
         <v>9.5</v>
       </c>
-      <c r="M61" s="7"/>
-      <c r="N61" s="4"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="2">
         <v>14</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C62">
@@ -1407,14 +1402,14 @@
       <c r="E62">
         <v>2024</v>
       </c>
-      <c r="M62" s="7">
-        <v>10</v>
-      </c>
-      <c r="N62" s="4"/>
+      <c r="M62" s="2">
+        <v>10</v>
+      </c>
+      <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
       <c r="C63">
         <v>10</v>
       </c>
@@ -1424,12 +1419,12 @@
       <c r="E63">
         <v>11</v>
       </c>
-      <c r="M63" s="7"/>
-      <c r="N63" s="4"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -1439,12 +1434,12 @@
       <c r="E64">
         <v>11</v>
       </c>
-      <c r="M64" s="7"/>
-      <c r="N64" s="4"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
       <c r="C65">
         <v>10</v>
       </c>
@@ -1454,276 +1449,235 @@
       <c r="E65">
         <v>9</v>
       </c>
-      <c r="M65" s="7"/>
-      <c r="N65" s="4"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="2">
         <v>15</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C66">
         <v>2019</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="2">
         <v>8.5</v>
       </c>
-      <c r="N66" s="4"/>
+      <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="M67" s="7"/>
-      <c r="N67" s="4"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
       <c r="C68">
         <v>12</v>
       </c>
-      <c r="M68" s="7"/>
-      <c r="N68" s="4"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
       <c r="C69">
         <v>8.5</v>
       </c>
-      <c r="M69" s="7"/>
-      <c r="N69" s="4"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -1734,32 +1688,32 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
     </row>
     <row r="134" spans="17:26" x14ac:dyDescent="0.25">
       <c r="Q134" s="1"/>
@@ -1907,12 +1861,84 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
     <mergeCell ref="A98:A101"/>
     <mergeCell ref="B98:B101"/>
     <mergeCell ref="M62:M65"/>
@@ -1929,84 +1955,12 @@
     <mergeCell ref="N82:N85"/>
     <mergeCell ref="M86:M89"/>
     <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2019,7 +1973,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EAA3A4-8FCF-48FE-AEA1-BFFA6845BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB62EAF9-0EC0-4E5D-BC7C-C8919409F388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="1245" windowWidth="20175" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="855" windowWidth="20175" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,54 @@
   </si>
   <si>
     <t>Bocchi the Rock!.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自繽紛世界的明日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iroduku, The World in Colors.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲3人娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asobi Asobase.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛構推理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In,Spectre.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定的夢幻島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Promised Neverland.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐賀偶像是傳奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie Land Saga.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女高中生的虛度日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wasteful Days of High School Girls.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,10 +344,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -582,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z165"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -900,7 +950,7 @@
         <v>2023</v>
       </c>
       <c r="M18" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>30</v>
@@ -934,7 +984,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D21" s="1"/>
       <c r="M21" s="2"/>
@@ -1495,183 +1545,464 @@
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="A70" s="3">
+        <v>16</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>2018</v>
+      </c>
+      <c r="M70" s="3">
+        <v>9.5</v>
+      </c>
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="M71" s="3"/>
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72">
+        <v>13</v>
+      </c>
+      <c r="M72" s="3"/>
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73">
+        <v>9.5</v>
+      </c>
+      <c r="M73" s="3"/>
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="A74" s="3">
+        <v>17</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74">
+        <v>2018</v>
+      </c>
+      <c r="M74" s="3">
+        <v>9</v>
+      </c>
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="M75" s="3"/>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="M76" s="3"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="M77" s="3"/>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="2"/>
+      <c r="A78" s="3">
+        <v>18</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2023</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="3">
+        <v>8.5</v>
+      </c>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="2"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4">
+        <v>12</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="3"/>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4">
+        <v>12</v>
+      </c>
+      <c r="D80" s="4">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="3"/>
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="3"/>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="A82" s="3">
+        <v>19</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="3">
+        <v>9.5</v>
+      </c>
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4">
+        <v>12</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="3"/>
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4">
+        <v>12</v>
+      </c>
+      <c r="D84" s="4">
+        <v>11</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="3"/>
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="M85" s="2"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="3"/>
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="A86" s="3">
+        <v>20</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D86" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="3">
+        <v>8.5</v>
+      </c>
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="M87" s="2"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4">
+        <v>12</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="3"/>
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="M88" s="2"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4">
+        <v>12</v>
+      </c>
+      <c r="D88" s="4">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="3"/>
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="M89" s="2"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="3"/>
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="A90" s="3">
+        <v>21</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="3">
+        <v>9</v>
+      </c>
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="M91" s="2"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="3"/>
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4">
+        <v>12</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="3"/>
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="3"/>
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
@@ -1861,22 +2192,74 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
     <mergeCell ref="M34:M37"/>
     <mergeCell ref="N34:N37"/>
     <mergeCell ref="B2:B5"/>
@@ -1893,74 +2276,22 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2124,6 +2455,54 @@
         <v>44</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB62EAF9-0EC0-4E5D-BC7C-C8919409F388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76E8A5-988B-4594-8D10-F4C69714A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="855" windowWidth="20175" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19725" yWindow="1320" windowWidth="9675" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -194,14 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>How Clumsy You Are, Miss Ueno.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KonoSuba, God's Blessing on This Wonderful World!.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alderamin on the Sky.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,18 +202,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nichijou.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword Art Online.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bofuri, I Don't Want to Get Hurt, so I'll Max Out My Defense.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hyouka.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,37 +225,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Endro!.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Squid Girl.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Noragami, Stray God.jpg</t>
-  </si>
-  <si>
-    <t>Bocchi the Rock!.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>來自繽紛世界的明日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iroduku, The World in Colors.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遊戲3人娘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Asobi Asobase.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虛構推理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,15 +257,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zombie Land Saga.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女高中生的虛度日常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wasteful Days of High School Girls.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOFURI, I Don't Want to Get Hurt, so I'll Max Out My Defense.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOCCHI THE ROCK!.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENDRO!.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noragami.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nichijou - My Ordinary Life.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KONOSUBA -God's blessing on this wonderful world!.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How clumsy you are, Miss Ueno.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRODUKU, The World in Colors.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asobi Asobase - workshop of fun -.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOMBIE LAND SAGA.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,12 +345,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -632,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z165"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1545,464 +1544,299 @@
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>16</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>60</v>
+      <c r="B70" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C70">
         <v>2018</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="2">
         <v>9.5</v>
       </c>
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
       <c r="C71">
         <v>13</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
       <c r="C72">
         <v>13</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
       <c r="C73">
         <v>9.5</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>17</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>62</v>
+      <c r="B74" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C74">
         <v>2018</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="2">
         <v>9</v>
       </c>
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
       <c r="C75">
         <v>12</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
       <c r="C76">
         <v>12</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
       <c r="C77">
         <v>9</v>
       </c>
-      <c r="M77" s="3"/>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>18</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="B78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78">
         <v>2020</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78">
         <v>2023</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="3">
+      <c r="M78" s="2">
         <v>8.5</v>
       </c>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4">
-        <v>12</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="3"/>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4">
-        <v>12</v>
-      </c>
-      <c r="D80" s="4">
-        <v>12</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="3"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>12</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="4">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81">
         <v>8.5</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="3"/>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>19</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="4">
+      <c r="B82" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82">
         <v>2019</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82">
         <v>2021</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="3">
+      <c r="M82" s="2">
         <v>9.5</v>
       </c>
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4">
-        <v>12</v>
-      </c>
-      <c r="D83" s="4">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="3"/>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4">
-        <v>12</v>
-      </c>
-      <c r="D84" s="4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
         <v>11</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="3"/>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="4">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85">
         <v>9.5</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="3"/>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>20</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="B86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86">
         <v>2018</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86">
         <v>2021</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="3">
+      <c r="M86" s="2">
         <v>8.5</v>
       </c>
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4">
-        <v>12</v>
-      </c>
-      <c r="D87" s="4">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="3"/>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="4">
-        <v>12</v>
-      </c>
-      <c r="D88" s="4">
-        <v>12</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="3"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89">
         <v>8.5</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="3"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>21</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="B90" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90">
         <v>2019</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="3">
+      <c r="M90" s="2">
         <v>9</v>
       </c>
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="4">
-        <v>12</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="3"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="4">
-        <v>12</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="3"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="4">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93">
         <v>9</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="3"/>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
@@ -2192,12 +2026,84 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
     <mergeCell ref="A98:A101"/>
     <mergeCell ref="B98:B101"/>
     <mergeCell ref="M62:M65"/>
@@ -2214,84 +2120,12 @@
     <mergeCell ref="N82:N85"/>
     <mergeCell ref="M86:M89"/>
     <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2304,7 +2138,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2340,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2380,7 +2214,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2412,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2420,7 +2254,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2428,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2444,7 +2278,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2452,7 +2286,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2460,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2468,7 +2302,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2476,7 +2310,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2484,7 +2318,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2326,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2500,7 +2334,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76E8A5-988B-4594-8D10-F4C69714A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DDFCB-7CA3-4EEF-92DB-F8CE56D59746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19725" yWindow="1320" windowWidth="9675" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11295" yWindow="1515" windowWidth="17370" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,22 @@
   </si>
   <si>
     <t>ZOMBIE LAND SAGA.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lord El-Melloi II's Case Files {Rail Zeppelin} Grace note.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾梅洛閣下II世事件簿 -魔眼蒐集列車 Grace note-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此花綺譚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KONOHANA KITAN.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,10 +361,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -629,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z165"/>
+  <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -796,7 +816,7 @@
         <v>2024</v>
       </c>
       <c r="M10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>26</v>
@@ -875,7 +895,7 @@
         <v>2020</v>
       </c>
       <c r="M14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>28</v>
@@ -949,7 +969,7 @@
         <v>2023</v>
       </c>
       <c r="M18" s="2">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>30</v>
@@ -1044,7 +1064,7 @@
         <v>2023</v>
       </c>
       <c r="M26" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26" s="2"/>
     </row>
@@ -1128,7 +1148,7 @@
         <v>2019</v>
       </c>
       <c r="M34" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="N34" s="2"/>
     </row>
@@ -1320,7 +1340,7 @@
         <v>2011</v>
       </c>
       <c r="M50" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="N50" s="2"/>
     </row>
@@ -1362,7 +1382,7 @@
         <v>2017</v>
       </c>
       <c r="M54" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="N54" s="2"/>
     </row>
@@ -1404,7 +1424,7 @@
         <v>2016</v>
       </c>
       <c r="M58" s="2">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="N58" s="2"/>
     </row>
@@ -1512,7 +1532,7 @@
         <v>2019</v>
       </c>
       <c r="M66" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="N66" s="2"/>
     </row>
@@ -1554,7 +1574,7 @@
         <v>2018</v>
       </c>
       <c r="M70" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="N70" s="2"/>
     </row>
@@ -1641,7 +1661,7 @@
         <v>2023</v>
       </c>
       <c r="M78" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="N78" s="2"/>
     </row>
@@ -1692,7 +1712,7 @@
         <v>2021</v>
       </c>
       <c r="M82" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="N82" s="2"/>
     </row>
@@ -1743,7 +1763,7 @@
         <v>2021</v>
       </c>
       <c r="M86" s="2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="N86" s="2"/>
     </row>
@@ -1823,27 +1843,44 @@
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="M94" s="2"/>
+      <c r="A94" s="3">
+        <v>22</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94">
+        <v>2019</v>
+      </c>
+      <c r="M94" s="3">
+        <v>9</v>
+      </c>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="M95" s="3"/>
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96">
+        <v>13</v>
+      </c>
+      <c r="M96" s="3"/>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="1"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4">
+        <v>9.5</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -1853,34 +1890,248 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="2"/>
+      <c r="M97" s="3"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="M98" s="2"/>
+      <c r="A98" s="3">
+        <v>23</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="4">
+        <v>2017</v>
+      </c>
+      <c r="M98" s="3">
+        <v>9</v>
+      </c>
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="4">
+        <v>12</v>
+      </c>
+      <c r="M99" s="3"/>
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="4">
+        <v>12</v>
+      </c>
+      <c r="M100" s="3"/>
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="4">
+        <v>9</v>
+      </c>
+      <c r="M101" s="3"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="134" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -1892,7 +2143,11 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -1904,7 +2159,35 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="140" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -1916,7 +2199,11 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -1928,7 +2215,35 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="146" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -1940,7 +2255,11 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -1952,7 +2271,35 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="152" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -1964,7 +2311,11 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -1976,7 +2327,35 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="158" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -1988,7 +2367,11 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -2000,7 +2383,35 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="164" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -2012,7 +2423,11 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="17:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -2024,24 +2439,392 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
+  <mergeCells count="200">
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="N158:N161"/>
+    <mergeCell ref="M162:M165"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="M130:M133"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="M114:M117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="M118:M121"/>
+    <mergeCell ref="N118:N121"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="M122:M125"/>
+    <mergeCell ref="M134:M137"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="M158:M161"/>
+    <mergeCell ref="M170:M173"/>
+    <mergeCell ref="M182:M185"/>
+    <mergeCell ref="M194:M197"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
     <mergeCell ref="M34:M37"/>
     <mergeCell ref="N34:N37"/>
     <mergeCell ref="B2:B5"/>
@@ -2058,74 +2841,22 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2135,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2337,6 +3068,22 @@
         <v>61</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8DDFCB-7CA3-4EEF-92DB-F8CE56D59746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE024B-08F6-4F8A-BB5E-155AC4775791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="1515" windowWidth="17370" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11295" yWindow="1515" windowWidth="17370" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -361,14 +361,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -651,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:A105"/>
     </sheetView>
   </sheetViews>
@@ -1843,42 +1839,42 @@
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>22</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C94">
         <v>2019</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="2">
         <v>9</v>
       </c>
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
       <c r="C95">
         <v>13</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
       <c r="C96">
         <v>13</v>
       </c>
-      <c r="M96" s="3"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97">
         <v>9.5</v>
       </c>
       <c r="D97" s="1"/>
@@ -1890,248 +1886,248 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="3"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>23</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98">
         <v>2017</v>
       </c>
-      <c r="M98" s="3">
+      <c r="M98" s="2">
         <v>9</v>
       </c>
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="4">
-        <v>12</v>
-      </c>
-      <c r="M99" s="3"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="4">
-        <v>12</v>
-      </c>
-      <c r="M100" s="3"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="4">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101">
         <v>9</v>
       </c>
-      <c r="M101" s="3"/>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -2144,10 +2140,10 @@
       <c r="Z134" s="1"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -2160,34 +2156,34 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -2200,10 +2196,10 @@
       <c r="Z140" s="1"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -2216,34 +2212,34 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -2256,10 +2252,10 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -2272,34 +2268,34 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -2312,10 +2308,10 @@
       <c r="Z152" s="1"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -2328,34 +2324,34 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -2368,10 +2364,10 @@
       <c r="Z158" s="1"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -2384,34 +2380,34 @@
       <c r="Z159" s="1"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -2424,10 +2420,10 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -2440,256 +2436,366 @@
       <c r="Z165" s="1"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
-    <mergeCell ref="N158:N161"/>
-    <mergeCell ref="M162:M165"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N134:N137"/>
-    <mergeCell ref="M138:M141"/>
-    <mergeCell ref="N138:N141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="N142:N145"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="M130:M133"/>
-    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="M122:M125"/>
+    <mergeCell ref="M134:M137"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="M158:M161"/>
+    <mergeCell ref="M170:M173"/>
+    <mergeCell ref="M182:M185"/>
+    <mergeCell ref="M194:M197"/>
     <mergeCell ref="N110:N113"/>
     <mergeCell ref="M114:M117"/>
     <mergeCell ref="N114:N117"/>
@@ -2699,15 +2805,6 @@
     <mergeCell ref="B194:B197"/>
     <mergeCell ref="A198:A201"/>
     <mergeCell ref="B198:B201"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="M122:M125"/>
-    <mergeCell ref="M134:M137"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="M158:M161"/>
-    <mergeCell ref="M170:M173"/>
-    <mergeCell ref="M182:M185"/>
-    <mergeCell ref="M194:M197"/>
     <mergeCell ref="A182:A185"/>
     <mergeCell ref="B182:B185"/>
     <mergeCell ref="A186:A189"/>
@@ -2723,140 +2820,39 @@
     <mergeCell ref="A158:A161"/>
     <mergeCell ref="B158:B161"/>
     <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="M130:M133"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="N158:N161"/>
+    <mergeCell ref="M162:M165"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE024B-08F6-4F8A-BB5E-155AC4775791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E8F63A-28D3-4842-ACAE-7D5F2246CB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="1515" windowWidth="17370" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:A105"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1"/>
       <c r="M21" s="2"/>
@@ -1086,7 +1086,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1170,7 +1170,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -1362,7 +1362,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -1404,7 +1404,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -1446,7 +1446,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -1554,7 +1554,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -1596,7 +1596,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -1689,7 +1689,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -1740,7 +1740,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -1791,7 +1791,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -1875,7 +1875,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -2653,42 +2653,146 @@
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="M122:M125"/>
+    <mergeCell ref="M134:M137"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="M158:M161"/>
+    <mergeCell ref="M170:M173"/>
+    <mergeCell ref="M182:M185"/>
+    <mergeCell ref="M194:M197"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="M114:M117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="M118:M121"/>
+    <mergeCell ref="N118:N121"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="M130:M133"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="N158:N161"/>
+    <mergeCell ref="M162:M165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
     <mergeCell ref="A54:A57"/>
     <mergeCell ref="B54:B57"/>
     <mergeCell ref="M54:M57"/>
@@ -2713,146 +2817,42 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="M122:M125"/>
-    <mergeCell ref="M134:M137"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="M158:M161"/>
-    <mergeCell ref="M170:M173"/>
-    <mergeCell ref="M182:M185"/>
-    <mergeCell ref="M194:M197"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="M114:M117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="M118:M121"/>
-    <mergeCell ref="N118:N121"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="N134:N137"/>
-    <mergeCell ref="M138:M141"/>
-    <mergeCell ref="N138:N141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="N142:N145"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="M130:M133"/>
-    <mergeCell ref="N130:N133"/>
-    <mergeCell ref="N158:N161"/>
-    <mergeCell ref="M162:M165"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E8F63A-28D3-4842-ACAE-7D5F2246CB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1FD10E-B705-4AE7-ACA4-5105B0F8C14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="1515" windowWidth="17370" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="1200" windowWidth="16860" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,70 @@
   </si>
   <si>
     <t>KONOHANA KITAN.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花開物語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanasaku Iroha ~Blossoms for Tomorrow~.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>櫻花任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakura Quest.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎來到實力至上主義的教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classroom of the Elite.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個人的○○小日子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hitoribocchi no Marumaruseikatsu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流汗吧！健身少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How Heavy Are the Dumbbells You Lift,.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科學超電磁砲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Certain Scientific Railgun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂賭之淵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kakegurui.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +425,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -647,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -891,7 +956,7 @@
         <v>2020</v>
       </c>
       <c r="M14" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>28</v>
@@ -1932,195 +1997,402 @@
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="A102" s="3">
+        <v>24</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102">
+        <v>2012</v>
+      </c>
+      <c r="D102">
+        <v>2015</v>
+      </c>
+      <c r="M102" s="3">
+        <v>10</v>
+      </c>
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103">
+        <v>13</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="M103" s="3"/>
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="M104" s="2"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="M104" s="3"/>
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="M105" s="2"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="M105" s="3"/>
       <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="M106" s="2"/>
+      <c r="A106" s="3">
+        <v>25</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106">
+        <v>2011</v>
+      </c>
+      <c r="M106" s="3">
+        <v>8</v>
+      </c>
       <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107">
+        <v>26</v>
+      </c>
+      <c r="M107" s="3"/>
       <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="M108" s="2"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108">
+        <v>26</v>
+      </c>
+      <c r="M108" s="3"/>
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="M109" s="2"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="M109" s="3"/>
       <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="M110" s="2"/>
+      <c r="A110" s="3">
+        <v>26</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110">
+        <v>2017</v>
+      </c>
+      <c r="M110" s="3">
+        <v>8</v>
+      </c>
       <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111">
+        <v>25</v>
+      </c>
+      <c r="M111" s="3"/>
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="M112" s="2"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112">
+        <v>25</v>
+      </c>
+      <c r="M112" s="3"/>
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="M113" s="2"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="M113" s="3"/>
       <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="M114" s="2"/>
+      <c r="A114" s="3">
+        <v>27</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114">
+        <v>2017</v>
+      </c>
+      <c r="D114">
+        <v>2022</v>
+      </c>
+      <c r="E114">
+        <v>2024</v>
+      </c>
+      <c r="M114" s="3">
+        <v>9</v>
+      </c>
       <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="M115" s="2"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="M115" s="3"/>
       <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="M116" s="2"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>13</v>
+      </c>
+      <c r="M116" s="3"/>
       <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="M117" s="2"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="M117" s="3"/>
       <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="M118" s="2"/>
+      <c r="A118" s="3">
+        <v>28</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118">
+        <v>2019</v>
+      </c>
+      <c r="M118" s="3">
+        <v>8</v>
+      </c>
       <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="M119" s="2"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119">
+        <v>12</v>
+      </c>
+      <c r="M119" s="3"/>
       <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="M120" s="2"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="M120" s="3"/>
       <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="M121" s="2"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="M121" s="3"/>
       <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="M122" s="2"/>
+      <c r="A122" s="3">
+        <v>29</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122">
+        <v>2019</v>
+      </c>
+      <c r="M122" s="3">
+        <v>7</v>
+      </c>
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="M123" s="2"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123">
+        <v>12</v>
+      </c>
+      <c r="M123" s="3"/>
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="M124" s="2"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124">
+        <v>12</v>
+      </c>
+      <c r="M124" s="3"/>
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="M125" s="2"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125">
+        <v>7</v>
+      </c>
+      <c r="M125" s="3"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="M126" s="2"/>
+      <c r="A126" s="3">
+        <v>30</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126">
+        <v>2009</v>
+      </c>
+      <c r="D126">
+        <v>2013</v>
+      </c>
+      <c r="E126">
+        <v>2020</v>
+      </c>
+      <c r="M126" s="3">
+        <v>8</v>
+      </c>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="M127" s="2"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127">
+        <v>24</v>
+      </c>
+      <c r="D127">
+        <v>24</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="M127" s="3"/>
       <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="M128" s="2"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128">
+        <v>24</v>
+      </c>
+      <c r="D128">
+        <v>24</v>
+      </c>
+      <c r="E128">
+        <v>25</v>
+      </c>
+      <c r="M128" s="3"/>
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="M129" s="2"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+      <c r="M129" s="3"/>
       <c r="N129" s="2"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="M130" s="2"/>
+      <c r="A130" s="3">
+        <v>31</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130">
+        <v>2017</v>
+      </c>
+      <c r="D130">
+        <v>2019</v>
+      </c>
+      <c r="M130" s="3">
+        <v>8</v>
+      </c>
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="M131" s="2"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="M131" s="3"/>
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="M132" s="2"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
+      <c r="M132" s="3"/>
       <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="M133" s="2"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
+      </c>
+      <c r="M133" s="3"/>
       <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
@@ -2653,46 +2925,139 @@
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
     <mergeCell ref="M122:M125"/>
     <mergeCell ref="M134:M137"/>
     <mergeCell ref="M146:M149"/>
@@ -2717,142 +3082,49 @@
     <mergeCell ref="N130:N133"/>
     <mergeCell ref="N158:N161"/>
     <mergeCell ref="M162:M165"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
     <mergeCell ref="B162:B165"/>
     <mergeCell ref="A166:A169"/>
     <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2862,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3080,6 +3352,70 @@
         <v>75</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1FD10E-B705-4AE7-ACA4-5105B0F8C14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDAAEE2-2D15-4407-89DF-D720F7D4879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="1200" windowWidth="16860" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="1410" windowWidth="16860" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -425,11 +425,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -712,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +876,7 @@
         <v>2024</v>
       </c>
       <c r="M10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>26</v>
@@ -956,7 +955,7 @@
         <v>2020</v>
       </c>
       <c r="M14" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>28</v>
@@ -1125,7 +1124,7 @@
         <v>2023</v>
       </c>
       <c r="M26" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N26" s="2"/>
     </row>
@@ -1151,7 +1150,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1511,7 +1510,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -1722,7 +1721,7 @@
         <v>2023</v>
       </c>
       <c r="M78" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N78" s="2"/>
     </row>
@@ -1754,7 +1753,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -1997,10 +1996,10 @@
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>24</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C102">
@@ -2009,136 +2008,136 @@
       <c r="D102">
         <v>2015</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="2">
         <v>10</v>
       </c>
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
       <c r="C103">
         <v>13</v>
       </c>
       <c r="D103">
         <v>13</v>
       </c>
-      <c r="M103" s="3"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
       <c r="C104">
         <v>13</v>
       </c>
       <c r="D104">
         <v>13</v>
       </c>
-      <c r="M104" s="3"/>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
       <c r="C105">
         <v>10</v>
       </c>
       <c r="D105">
         <v>10</v>
       </c>
-      <c r="M105" s="3"/>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>25</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C106">
         <v>2011</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M106" s="2">
         <v>8</v>
       </c>
       <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
       <c r="C107">
         <v>26</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
       <c r="C108">
         <v>26</v>
       </c>
-      <c r="M108" s="3"/>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
       <c r="C109">
         <v>8</v>
       </c>
-      <c r="M109" s="3"/>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>26</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C110">
         <v>2017</v>
       </c>
-      <c r="M110" s="3">
+      <c r="M110" s="2">
         <v>8</v>
       </c>
       <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
       <c r="C111">
         <v>25</v>
       </c>
-      <c r="M111" s="3"/>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
       <c r="C112">
         <v>25</v>
       </c>
-      <c r="M112" s="3"/>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
       <c r="C113">
         <v>8</v>
       </c>
-      <c r="M113" s="3"/>
+      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>27</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C114">
@@ -2150,14 +2149,14 @@
       <c r="E114">
         <v>2024</v>
       </c>
-      <c r="M114" s="3">
+      <c r="M114" s="2">
         <v>9</v>
       </c>
       <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
       <c r="C115">
         <v>12</v>
       </c>
@@ -2167,12 +2166,12 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="M115" s="3"/>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
       <c r="C116">
         <v>12</v>
       </c>
@@ -2182,107 +2181,107 @@
       <c r="E116">
         <v>13</v>
       </c>
-      <c r="M116" s="3"/>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
       <c r="C117">
         <v>9</v>
       </c>
-      <c r="M117" s="3"/>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>28</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C118">
         <v>2019</v>
       </c>
-      <c r="M118" s="3">
+      <c r="M118" s="2">
         <v>8</v>
       </c>
       <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
       <c r="C119">
         <v>12</v>
       </c>
-      <c r="M119" s="3"/>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
       <c r="C120">
         <v>12</v>
       </c>
-      <c r="M120" s="3"/>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
       <c r="C121">
         <v>8</v>
       </c>
-      <c r="M121" s="3"/>
+      <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>29</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C122">
         <v>2019</v>
       </c>
-      <c r="M122" s="3">
+      <c r="M122" s="2">
         <v>7</v>
       </c>
       <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
       <c r="C123">
         <v>12</v>
       </c>
-      <c r="M123" s="3"/>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
       <c r="C124">
         <v>12</v>
       </c>
-      <c r="M124" s="3"/>
+      <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
       <c r="C125">
         <v>7</v>
       </c>
-      <c r="M125" s="3"/>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>30</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C126">
@@ -2294,14 +2293,14 @@
       <c r="E126">
         <v>2020</v>
       </c>
-      <c r="M126" s="3">
+      <c r="M126" s="2">
         <v>8</v>
       </c>
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
       <c r="C127">
         <v>24</v>
       </c>
@@ -2311,12 +2310,12 @@
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="M127" s="3"/>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
       <c r="C128">
         <v>24</v>
       </c>
@@ -2326,26 +2325,26 @@
       <c r="E128">
         <v>25</v>
       </c>
-      <c r="M128" s="3"/>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
       <c r="C129">
         <v>8</v>
       </c>
       <c r="D129">
         <v>8</v>
       </c>
-      <c r="M129" s="3"/>
+      <c r="M129" s="2"/>
       <c r="N129" s="2"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>31</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C130">
@@ -2354,45 +2353,45 @@
       <c r="D130">
         <v>2019</v>
       </c>
-      <c r="M130" s="3">
+      <c r="M130" s="2">
         <v>8</v>
       </c>
       <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
       <c r="C131">
         <v>12</v>
       </c>
       <c r="D131">
         <v>12</v>
       </c>
-      <c r="M131" s="3"/>
+      <c r="M131" s="2"/>
       <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
       <c r="C132">
         <v>12</v>
       </c>
       <c r="D132">
         <v>12</v>
       </c>
-      <c r="M132" s="3"/>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
       <c r="C133">
         <v>8</v>
       </c>
       <c r="D133">
         <v>8</v>
       </c>
-      <c r="M133" s="3"/>
+      <c r="M133" s="2"/>
       <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
@@ -2925,39 +2924,149 @@
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="M122:M125"/>
+    <mergeCell ref="M134:M137"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="M158:M161"/>
+    <mergeCell ref="M170:M173"/>
+    <mergeCell ref="M182:M185"/>
+    <mergeCell ref="M194:M197"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="M114:M117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="M118:M121"/>
+    <mergeCell ref="N118:N121"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="M130:M133"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="N158:N161"/>
+    <mergeCell ref="M162:M165"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
     <mergeCell ref="N54:N57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="B58:B61"/>
@@ -2982,149 +3091,39 @@
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="M50:M53"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="M122:M125"/>
-    <mergeCell ref="M134:M137"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="M158:M161"/>
-    <mergeCell ref="M170:M173"/>
-    <mergeCell ref="M182:M185"/>
-    <mergeCell ref="M194:M197"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="M114:M117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="M118:M121"/>
-    <mergeCell ref="N118:N121"/>
-    <mergeCell ref="N134:N137"/>
-    <mergeCell ref="M138:M141"/>
-    <mergeCell ref="N138:N141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="N142:N145"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="M130:M133"/>
-    <mergeCell ref="N130:N133"/>
-    <mergeCell ref="N158:N161"/>
-    <mergeCell ref="M162:M165"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3136,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDAAEE2-2D15-4407-89DF-D720F7D4879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DDE586-4E6C-4213-A3EC-13E701D4D70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="1410" windowWidth="16860" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12030" yWindow="1830" windowWidth="16860" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,70 @@
   </si>
   <si>
     <t>Kakegurui.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP TEAM EPIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop Team Epic.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林殺手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOBLIN SLAYER.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿乃子乃子乃子虎視眈眈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO GAME NO LIFE 遊戲人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Game, No Life.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪神與廚二病少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropkick on My Devil!.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關於我轉生變成史萊姆這檔事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日時在做什麼？有沒有空？可以來拯救嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldEnd, What are you doing at the end of the world, Are you busy, Will you save us,.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中二病也想談戀愛！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Love, Chunibyo &amp; Other Delusions.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +489,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -711,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2395,9 +2460,21 @@
       <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="M134" s="2"/>
+      <c r="A134" s="3">
+        <v>32</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C134">
+        <v>2018</v>
+      </c>
+      <c r="D134">
+        <v>2022</v>
+      </c>
+      <c r="M134" s="3">
+        <v>8</v>
+      </c>
       <c r="N134" s="2"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -2411,9 +2488,15 @@
       <c r="Z134" s="1"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="M135" s="2"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="M135" s="3"/>
       <c r="N135" s="2"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -2427,33 +2510,66 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="M136" s="2"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>12</v>
+      </c>
+      <c r="M136" s="3"/>
       <c r="N136" s="2"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="M137" s="2"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="M137" s="3"/>
       <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="M138" s="2"/>
+      <c r="A138" s="3">
+        <v>33</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C138">
+        <v>2018</v>
+      </c>
+      <c r="D138">
+        <v>2023</v>
+      </c>
+      <c r="M138" s="3">
+        <v>8</v>
+      </c>
       <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="M139" s="2"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="M139" s="3"/>
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="M140" s="2"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>12</v>
+      </c>
+      <c r="M140" s="3"/>
       <c r="N140" s="2"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -2467,9 +2583,12 @@
       <c r="Z140" s="1"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="M141" s="2"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="M141" s="3"/>
       <c r="N141" s="2"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -2483,33 +2602,60 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="M142" s="2"/>
+      <c r="A142" s="3">
+        <v>34</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142">
+        <v>2024</v>
+      </c>
+      <c r="M142" s="3">
+        <v>8</v>
+      </c>
       <c r="N142" s="2"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="M143" s="2"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="M143" s="3"/>
       <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="M144" s="2"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144">
+        <v>12</v>
+      </c>
+      <c r="M144" s="3"/>
       <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="M145" s="2"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145">
+        <v>8</v>
+      </c>
+      <c r="M145" s="3"/>
       <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="M146" s="2"/>
+      <c r="A146" s="3">
+        <v>35</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C146">
+        <v>2014</v>
+      </c>
+      <c r="M146" s="3">
+        <v>8</v>
+      </c>
       <c r="N146" s="2"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
@@ -2523,9 +2669,12 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="M147" s="2"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="M147" s="3"/>
       <c r="N147" s="2"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -2539,33 +2688,72 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="M148" s="2"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148">
+        <v>12</v>
+      </c>
+      <c r="M148" s="3"/>
       <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="M149" s="2"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149">
+        <v>8</v>
+      </c>
+      <c r="M149" s="3"/>
       <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="M150" s="2"/>
+      <c r="A150" s="3">
+        <v>36</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150">
+        <v>2018</v>
+      </c>
+      <c r="D150">
+        <v>2020</v>
+      </c>
+      <c r="E150">
+        <v>2022</v>
+      </c>
+      <c r="M150" s="3">
+        <v>8</v>
+      </c>
       <c r="N150" s="2"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="M151" s="2"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="M151" s="3"/>
       <c r="N151" s="2"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="M152" s="2"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152">
+        <v>11</v>
+      </c>
+      <c r="D152">
+        <v>11</v>
+      </c>
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="M152" s="3"/>
       <c r="N152" s="2"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -2579,9 +2767,12 @@
       <c r="Z152" s="1"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="M153" s="2"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="M153" s="3"/>
       <c r="N153" s="2"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -2595,33 +2786,78 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="M154" s="2"/>
+      <c r="A154" s="3">
+        <v>37</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C154">
+        <v>2018</v>
+      </c>
+      <c r="D154">
+        <v>2021</v>
+      </c>
+      <c r="E154">
+        <v>2024</v>
+      </c>
+      <c r="M154" s="3">
+        <v>7</v>
+      </c>
       <c r="N154" s="2"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="M155" s="2"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155">
+        <v>24</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="M155" s="3"/>
       <c r="N155" s="2"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="M156" s="2"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156">
+        <v>24</v>
+      </c>
+      <c r="D156">
+        <v>24</v>
+      </c>
+      <c r="E156">
+        <v>24</v>
+      </c>
+      <c r="M156" s="3"/>
       <c r="N156" s="2"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="M157" s="2"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157">
+        <v>7</v>
+      </c>
+      <c r="M157" s="3"/>
       <c r="N157" s="2"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="M158" s="2"/>
+      <c r="A158" s="3">
+        <v>38</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C158">
+        <v>2017</v>
+      </c>
+      <c r="M158" s="3">
+        <v>8</v>
+      </c>
       <c r="N158" s="2"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
@@ -2635,9 +2871,12 @@
       <c r="Z158" s="1"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="M159" s="2"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159">
+        <v>12</v>
+      </c>
+      <c r="M159" s="3"/>
       <c r="N159" s="2"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
@@ -2651,33 +2890,63 @@
       <c r="Z159" s="1"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="M160" s="2"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="M160" s="3"/>
       <c r="N160" s="2"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="M161" s="2"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161">
+        <v>8</v>
+      </c>
+      <c r="M161" s="3"/>
       <c r="N161" s="2"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="M162" s="2"/>
+      <c r="A162" s="3">
+        <v>39</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162">
+        <v>2012</v>
+      </c>
+      <c r="D162">
+        <v>2014</v>
+      </c>
+      <c r="M162" s="3">
+        <v>9</v>
+      </c>
       <c r="N162" s="2"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="M163" s="2"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="M163" s="3"/>
       <c r="N163" s="2"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="M164" s="2"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>12</v>
+      </c>
+      <c r="M164" s="3"/>
       <c r="N164" s="2"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -2691,9 +2960,12 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="M165" s="2"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165">
+        <v>9</v>
+      </c>
+      <c r="M165" s="3"/>
       <c r="N165" s="2"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -2924,49 +3196,139 @@
     </row>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
     <mergeCell ref="M122:M125"/>
     <mergeCell ref="M134:M137"/>
     <mergeCell ref="M146:M149"/>
@@ -2991,139 +3353,49 @@
     <mergeCell ref="N130:N133"/>
     <mergeCell ref="N158:N161"/>
     <mergeCell ref="M162:M165"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3133,15 +3405,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3415,6 +3687,70 @@
         <v>91</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DDE586-4E6C-4213-A3EC-13E701D4D70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4996A2EF-E1D0-4333-8A54-61B05F41CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="1830" windowWidth="16860" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="1800" windowWidth="16800" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,70 @@
   </si>
   <si>
     <t>Love, Chunibyo &amp; Other Delusions.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多羅羅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dororo.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文豪Stray Dogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bungo Stray Dogs.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博多豚骨拉麵團</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hakata Tonkotsu Ramens.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌舞伎町夏洛克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case File nº221, Kabukicho.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搖曳露營△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laid-Back Camp.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房間露營△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM CAMP.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼方的阿斯特拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASTRA LOST IN SPACE.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主殿下，「拷問」的時間到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tis Time for ,Torture,, Princess.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,11 +553,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -774,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z201"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110:M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1572,7 @@
         <v>2017</v>
       </c>
       <c r="M54" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N54" s="2"/>
     </row>
@@ -1533,7 +1598,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -1657,7 +1722,7 @@
         <v>2019</v>
       </c>
       <c r="M66" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N66" s="2"/>
     </row>
@@ -1683,7 +1748,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -1741,7 +1806,7 @@
         <v>2018</v>
       </c>
       <c r="M74" s="2">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="N74" s="2"/>
     </row>
@@ -1786,7 +1851,7 @@
         <v>2023</v>
       </c>
       <c r="M78" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N78" s="2"/>
     </row>
@@ -1818,7 +1883,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -1888,7 +1953,7 @@
         <v>2021</v>
       </c>
       <c r="M86" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N86" s="2"/>
     </row>
@@ -1920,7 +1985,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -1936,7 +2001,7 @@
         <v>2019</v>
       </c>
       <c r="M90" s="2">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="N90" s="2"/>
     </row>
@@ -2167,7 +2232,7 @@
         <v>2017</v>
       </c>
       <c r="M110" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N110" s="2"/>
     </row>
@@ -2193,7 +2258,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -2269,7 +2334,7 @@
         <v>2019</v>
       </c>
       <c r="M118" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N118" s="2"/>
     </row>
@@ -2295,7 +2360,7 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -2311,7 +2376,7 @@
         <v>2019</v>
       </c>
       <c r="M122" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N122" s="2"/>
     </row>
@@ -2337,7 +2402,7 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -2359,7 +2424,7 @@
         <v>2020</v>
       </c>
       <c r="M126" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N126" s="2"/>
     </row>
@@ -2397,10 +2462,10 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -2460,10 +2525,10 @@
       <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>32</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C134">
@@ -2472,7 +2537,7 @@
       <c r="D134">
         <v>2022</v>
       </c>
-      <c r="M134" s="3">
+      <c r="M134" s="2">
         <v>8</v>
       </c>
       <c r="N134" s="2"/>
@@ -2488,15 +2553,15 @@
       <c r="Z134" s="1"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
       <c r="C135">
         <v>12</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
-      <c r="M135" s="3"/>
+      <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -2510,31 +2575,31 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
       <c r="C136">
         <v>12</v>
       </c>
       <c r="D136">
         <v>12</v>
       </c>
-      <c r="M136" s="3"/>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
       <c r="C137">
         <v>8</v>
       </c>
-      <c r="M137" s="3"/>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>33</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C138">
@@ -2543,33 +2608,33 @@
       <c r="D138">
         <v>2023</v>
       </c>
-      <c r="M138" s="3">
+      <c r="M138" s="2">
         <v>8</v>
       </c>
       <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
       <c r="C139">
         <v>12</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="M139" s="3"/>
+      <c r="M139" s="2"/>
       <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
       <c r="C140">
         <v>12</v>
       </c>
       <c r="D140">
         <v>12</v>
       </c>
-      <c r="M140" s="3"/>
+      <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -2583,12 +2648,12 @@
       <c r="Z140" s="1"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
       <c r="C141">
         <v>8</v>
       </c>
-      <c r="M141" s="3"/>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -2602,59 +2667,59 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>34</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C142">
         <v>2024</v>
       </c>
-      <c r="M142" s="3">
+      <c r="M142" s="2">
         <v>8</v>
       </c>
       <c r="N142" s="2"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
       <c r="C143">
         <v>6</v>
       </c>
-      <c r="M143" s="3"/>
+      <c r="M143" s="2"/>
       <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
       <c r="C144">
         <v>12</v>
       </c>
-      <c r="M144" s="3"/>
+      <c r="M144" s="2"/>
       <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
       <c r="C145">
         <v>8</v>
       </c>
-      <c r="M145" s="3"/>
+      <c r="M145" s="2"/>
       <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>35</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C146">
         <v>2014</v>
       </c>
-      <c r="M146" s="3">
-        <v>8</v>
+      <c r="M146" s="2">
+        <v>7</v>
       </c>
       <c r="N146" s="2"/>
       <c r="Q146" s="1"/>
@@ -2669,12 +2734,12 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
       <c r="C147">
         <v>12</v>
       </c>
-      <c r="M147" s="3"/>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -2688,28 +2753,28 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
       <c r="C148">
         <v>12</v>
       </c>
-      <c r="M148" s="3"/>
+      <c r="M148" s="2"/>
       <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
       <c r="C149">
-        <v>8</v>
-      </c>
-      <c r="M149" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>36</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C150">
@@ -2721,14 +2786,14 @@
       <c r="E150">
         <v>2022</v>
       </c>
-      <c r="M150" s="3">
+      <c r="M150" s="2">
         <v>8</v>
       </c>
       <c r="N150" s="2"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
       <c r="C151">
         <v>11</v>
       </c>
@@ -2738,12 +2803,12 @@
       <c r="E151">
         <v>0</v>
       </c>
-      <c r="M151" s="3"/>
+      <c r="M151" s="2"/>
       <c r="N151" s="2"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
       <c r="C152">
         <v>11</v>
       </c>
@@ -2753,7 +2818,7 @@
       <c r="E152">
         <v>12</v>
       </c>
-      <c r="M152" s="3"/>
+      <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -2767,12 +2832,12 @@
       <c r="Z152" s="1"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
       <c r="C153">
         <v>8</v>
       </c>
-      <c r="M153" s="3"/>
+      <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -2786,10 +2851,10 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>37</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C154">
@@ -2801,14 +2866,14 @@
       <c r="E154">
         <v>2024</v>
       </c>
-      <c r="M154" s="3">
-        <v>7</v>
+      <c r="M154" s="2">
+        <v>6</v>
       </c>
       <c r="N154" s="2"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
       <c r="C155">
         <v>24</v>
       </c>
@@ -2818,12 +2883,12 @@
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="M155" s="3"/>
+      <c r="M155" s="2"/>
       <c r="N155" s="2"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
       <c r="C156">
         <v>24</v>
       </c>
@@ -2833,29 +2898,29 @@
       <c r="E156">
         <v>24</v>
       </c>
-      <c r="M156" s="3"/>
+      <c r="M156" s="2"/>
       <c r="N156" s="2"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
       <c r="C157">
-        <v>7</v>
-      </c>
-      <c r="M157" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" s="2"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>38</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C158">
         <v>2017</v>
       </c>
-      <c r="M158" s="3">
+      <c r="M158" s="2">
         <v>8</v>
       </c>
       <c r="N158" s="2"/>
@@ -2871,12 +2936,12 @@
       <c r="Z158" s="1"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
       <c r="C159">
         <v>12</v>
       </c>
-      <c r="M159" s="3"/>
+      <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
@@ -2890,28 +2955,28 @@
       <c r="Z159" s="1"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
       <c r="C160">
         <v>12</v>
       </c>
-      <c r="M160" s="3"/>
+      <c r="M160" s="2"/>
       <c r="N160" s="2"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
       <c r="C161">
         <v>8</v>
       </c>
-      <c r="M161" s="3"/>
+      <c r="M161" s="2"/>
       <c r="N161" s="2"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>39</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C162">
@@ -2920,33 +2985,33 @@
       <c r="D162">
         <v>2014</v>
       </c>
-      <c r="M162" s="3">
+      <c r="M162" s="2">
         <v>9</v>
       </c>
       <c r="N162" s="2"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
       <c r="C163">
         <v>12</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
-      <c r="M163" s="3"/>
+      <c r="M163" s="2"/>
       <c r="N163" s="2"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
       <c r="C164">
         <v>12</v>
       </c>
       <c r="D164">
         <v>12</v>
       </c>
-      <c r="M164" s="3"/>
+      <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -2960,12 +3025,12 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
       <c r="C165">
         <v>9</v>
       </c>
-      <c r="M165" s="3"/>
+      <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -2979,195 +3044,399 @@
       <c r="Z165" s="1"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="M166" s="2"/>
+      <c r="A166" s="3">
+        <v>40</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C166">
+        <v>2019</v>
+      </c>
+      <c r="M166" s="3">
+        <v>6</v>
+      </c>
       <c r="N166" s="2"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="M167" s="2"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167">
+        <v>24</v>
+      </c>
+      <c r="M167" s="3"/>
       <c r="N167" s="2"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="M168" s="2"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168">
+        <v>24</v>
+      </c>
+      <c r="M168" s="3"/>
       <c r="N168" s="2"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="M169" s="2"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="M169" s="3"/>
       <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="M170" s="2"/>
+      <c r="A170" s="3">
+        <v>41</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C170">
+        <v>2016</v>
+      </c>
+      <c r="D170">
+        <v>2016</v>
+      </c>
+      <c r="E170">
+        <v>2019</v>
+      </c>
+      <c r="F170">
+        <v>2023</v>
+      </c>
+      <c r="G170">
+        <v>2023</v>
+      </c>
+      <c r="M170" s="3">
+        <v>10</v>
+      </c>
       <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="M171" s="2"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>12</v>
+      </c>
+      <c r="E171">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="M171" s="3"/>
       <c r="N171" s="2"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="M172" s="2"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172">
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>12</v>
+      </c>
+      <c r="E172">
+        <v>12</v>
+      </c>
+      <c r="F172">
+        <v>13</v>
+      </c>
+      <c r="G172">
+        <v>11</v>
+      </c>
+      <c r="M172" s="3"/>
       <c r="N172" s="2"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="M173" s="2"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>10</v>
+      </c>
+      <c r="E173">
+        <v>10</v>
+      </c>
+      <c r="M173" s="3"/>
       <c r="N173" s="2"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="M174" s="2"/>
+      <c r="A174" s="3">
+        <v>42</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C174">
+        <v>2018</v>
+      </c>
+      <c r="M174" s="3">
+        <v>6</v>
+      </c>
       <c r="N174" s="2"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="M175" s="2"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175">
+        <v>12</v>
+      </c>
+      <c r="M175" s="3"/>
       <c r="N175" s="2"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="M176" s="2"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176">
+        <v>12</v>
+      </c>
+      <c r="M176" s="3"/>
       <c r="N176" s="2"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="M177" s="2"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="M177" s="3"/>
       <c r="N177" s="2"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="M178" s="2"/>
+      <c r="A178" s="3">
+        <v>43</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178">
+        <v>2019</v>
+      </c>
+      <c r="M178" s="3">
+        <v>8</v>
+      </c>
       <c r="N178" s="2"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="M179" s="2"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179">
+        <v>24</v>
+      </c>
+      <c r="M179" s="3"/>
       <c r="N179" s="2"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="M180" s="2"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180">
+        <v>24</v>
+      </c>
+      <c r="M180" s="3"/>
       <c r="N180" s="2"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="M181" s="2"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181">
+        <v>8</v>
+      </c>
+      <c r="M181" s="3"/>
       <c r="N181" s="2"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="M182" s="2"/>
+      <c r="A182" s="3">
+        <v>44</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182">
+        <v>2018</v>
+      </c>
+      <c r="D182">
+        <v>2021</v>
+      </c>
+      <c r="E182">
+        <v>2024</v>
+      </c>
+      <c r="M182" s="3">
+        <v>10</v>
+      </c>
       <c r="N182" s="2"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="M183" s="2"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183">
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="M183" s="3"/>
       <c r="N183" s="2"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="M184" s="2"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184">
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>13</v>
+      </c>
+      <c r="E184">
+        <v>12</v>
+      </c>
+      <c r="M184" s="3"/>
       <c r="N184" s="2"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="M185" s="2"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="M185" s="3"/>
       <c r="N185" s="2"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="M186" s="2"/>
+      <c r="A186" s="3">
+        <v>45</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C186">
+        <v>2020</v>
+      </c>
+      <c r="M186" s="3">
+        <v>10</v>
+      </c>
       <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="M187" s="2"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="M187" s="3"/>
       <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="M188" s="2"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188">
+        <v>12</v>
+      </c>
+      <c r="M188" s="3"/>
       <c r="N188" s="2"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="M189" s="2"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="M189" s="3"/>
       <c r="N189" s="2"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="M190" s="2"/>
+      <c r="A190" s="3">
+        <v>46</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C190">
+        <v>2019</v>
+      </c>
+      <c r="M190" s="3">
+        <v>6</v>
+      </c>
       <c r="N190" s="2"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="M191" s="2"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="M191" s="3"/>
       <c r="N191" s="2"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="M192" s="2"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192">
+        <v>12</v>
+      </c>
+      <c r="M192" s="3"/>
       <c r="N192" s="2"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="M193" s="2"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="M193" s="3"/>
       <c r="N193" s="2"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="M194" s="2"/>
+      <c r="A194" s="3">
+        <v>47</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C194">
+        <v>2024</v>
+      </c>
+      <c r="M194" s="3">
+        <v>7</v>
+      </c>
       <c r="N194" s="2"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="M195" s="2"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195">
+        <v>8</v>
+      </c>
+      <c r="M195" s="3"/>
       <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="M196" s="2"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196">
+        <v>12</v>
+      </c>
+      <c r="M196" s="3"/>
       <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="M197" s="2"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="M197" s="3"/>
       <c r="N197" s="2"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -3194,41 +3463,207 @@
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
     </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="M204" s="2"/>
+      <c r="N204" s="2"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="200">
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
+  <mergeCells count="208">
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="M202:M205"/>
+    <mergeCell ref="N202:N205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="M206:M209"/>
+    <mergeCell ref="N206:N209"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="M122:M125"/>
+    <mergeCell ref="M134:M137"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="M158:M161"/>
+    <mergeCell ref="M170:M173"/>
+    <mergeCell ref="M182:M185"/>
+    <mergeCell ref="M194:M197"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="M114:M117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="M118:M121"/>
+    <mergeCell ref="N118:N121"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="M130:M133"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="N158:N161"/>
+    <mergeCell ref="M162:M165"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
     <mergeCell ref="N54:N57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="B58:B61"/>
@@ -3253,149 +3688,39 @@
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="M50:M53"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="M122:M125"/>
-    <mergeCell ref="M134:M137"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="M158:M161"/>
-    <mergeCell ref="M170:M173"/>
-    <mergeCell ref="M182:M185"/>
-    <mergeCell ref="M194:M197"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="M114:M117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="M118:M121"/>
-    <mergeCell ref="N118:N121"/>
-    <mergeCell ref="N134:N137"/>
-    <mergeCell ref="M138:M141"/>
-    <mergeCell ref="N138:N141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="N142:N145"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="M130:M133"/>
-    <mergeCell ref="N130:N133"/>
-    <mergeCell ref="N158:N161"/>
-    <mergeCell ref="M162:M165"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3751,6 +4076,70 @@
         <v>107</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4996A2EF-E1D0-4333-8A54-61B05F41CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21946D5B-D62F-4747-ABED-D3A5F2CC9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="1800" windowWidth="16800" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="1695" windowWidth="16800" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tis Time for ,Torture,, Princess.jpg</t>
+    <t>,Tis Time for ,Torture,, Princess.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,12 +553,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -899,98 +898,98 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6">
         <v>2018</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>10</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>13</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>13</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10">
@@ -1005,16 +1004,16 @@
       <c r="F10">
         <v>2024</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>8</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>26</v>
       </c>
@@ -1027,12 +1026,12 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>26</v>
       </c>
@@ -1045,12 +1044,12 @@
       <c r="F12">
         <v>8</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13">
         <v>8</v>
       </c>
@@ -1059,14 +1058,14 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="M13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14">
@@ -1084,16 +1083,16 @@
       <c r="G14">
         <v>2020</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>8</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>25</v>
       </c>
@@ -1109,12 +1108,12 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>25</v>
       </c>
@@ -1130,26 +1129,26 @@
       <c r="G16">
         <v>11</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C18">
@@ -1158,222 +1157,222 @@
       <c r="D18">
         <v>2023</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <v>7</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20">
         <v>12</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="M21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="3">
         <v>10</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23">
         <v>12</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>10</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C26">
         <v>2023</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="3">
         <v>8</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C30">
         <v>2023</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="3">
         <v>10</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31">
         <v>28</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32">
         <v>28</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>7</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C34">
         <v>2019</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="3">
         <v>8</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35">
         <v>12</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36">
         <v>12</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>8</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C38">
@@ -1382,52 +1381,52 @@
       <c r="D38">
         <v>2011</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="3">
         <v>10</v>
       </c>
-      <c r="N38" s="2"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39">
         <v>12</v>
       </c>
       <c r="D39">
         <v>12</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40">
         <v>12</v>
       </c>
       <c r="D40">
         <v>12</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
         <v>10</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>9</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C42">
@@ -1436,220 +1435,220 @@
       <c r="D42">
         <v>2015</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="3">
         <v>10</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43">
         <v>12</v>
       </c>
       <c r="D43">
         <v>13</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
       <c r="C44">
         <v>12</v>
       </c>
       <c r="D44">
         <v>13</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45">
         <v>10</v>
       </c>
       <c r="D45">
         <v>10</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>10</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C46">
         <v>2012</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="3">
         <v>10</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47">
         <v>22</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48">
         <v>22</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49">
         <v>10</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>11</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C50">
         <v>2011</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="3">
         <v>9</v>
       </c>
-      <c r="N50" s="2"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51">
         <v>26</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52">
         <v>26</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
       <c r="C53">
         <v>9</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>12</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="3">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C54">
         <v>2017</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="3">
         <v>8</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55">
         <v>12</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
       <c r="C56">
         <v>12</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57">
         <v>8</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>13</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C58">
         <v>2016</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="3">
         <v>8</v>
       </c>
-      <c r="N58" s="2"/>
+      <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59">
         <v>13</v>
       </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60">
         <v>13</v>
       </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61">
         <v>8</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>14</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C62">
@@ -1661,14 +1660,14 @@
       <c r="E62">
         <v>2024</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="3">
         <v>10</v>
       </c>
-      <c r="N62" s="2"/>
+      <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63">
         <v>10</v>
       </c>
@@ -1678,12 +1677,12 @@
       <c r="E63">
         <v>11</v>
       </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64">
         <v>10</v>
       </c>
@@ -1693,12 +1692,12 @@
       <c r="E64">
         <v>11</v>
       </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65">
         <v>10</v>
       </c>
@@ -1708,140 +1707,140 @@
       <c r="E65">
         <v>9</v>
       </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>15</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C66">
         <v>2019</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="3">
         <v>7</v>
       </c>
-      <c r="N66" s="2"/>
+      <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
       <c r="C68">
         <v>12</v>
       </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69">
         <v>7</v>
       </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>16</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C70">
         <v>2018</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="3">
         <v>9</v>
       </c>
-      <c r="N70" s="2"/>
+      <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
       <c r="C71">
         <v>13</v>
       </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
       <c r="C72">
         <v>13</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
       <c r="C73">
         <v>9</v>
       </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>17</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C74">
         <v>2018</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="3">
         <v>8.5</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
       <c r="C75">
         <v>12</v>
       </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
       <c r="C76">
         <v>12</v>
       </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
       <c r="C77">
         <v>9</v>
       </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>18</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C78">
@@ -1850,49 +1849,49 @@
       <c r="D78">
         <v>2023</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="3">
         <v>6</v>
       </c>
-      <c r="N78" s="2"/>
+      <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
       <c r="C79">
         <v>12</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
       <c r="C80">
         <v>12</v>
       </c>
       <c r="D80">
         <v>12</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
       <c r="C81">
         <v>6</v>
       </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>19</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C82">
@@ -1901,49 +1900,49 @@
       <c r="D82">
         <v>2021</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="3">
         <v>9</v>
       </c>
-      <c r="N82" s="2"/>
+      <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
       <c r="C83">
         <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84">
         <v>12</v>
       </c>
       <c r="D84">
         <v>11</v>
       </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
       <c r="C85">
         <v>9</v>
       </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>20</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C86">
@@ -1952,122 +1951,122 @@
       <c r="D86">
         <v>2021</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="3">
         <v>7</v>
       </c>
-      <c r="N86" s="2"/>
+      <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
       <c r="C87">
         <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88">
         <v>12</v>
       </c>
       <c r="D88">
         <v>12</v>
       </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89">
         <v>7</v>
       </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>21</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C90">
         <v>2019</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="3">
         <v>8.5</v>
       </c>
-      <c r="N90" s="2"/>
+      <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
       <c r="C91">
         <v>12</v>
       </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
       <c r="C92">
         <v>12</v>
       </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
       <c r="C93">
         <v>9</v>
       </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>22</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C94">
         <v>2019</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="3">
         <v>9</v>
       </c>
-      <c r="N94" s="2"/>
+      <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95">
         <v>13</v>
       </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
       <c r="C96">
         <v>13</v>
       </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
       <c r="C97">
         <v>9</v>
       </c>
@@ -2080,56 +2079,56 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>23</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C98">
         <v>2017</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="3">
         <v>9</v>
       </c>
-      <c r="N98" s="2"/>
+      <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
       <c r="C99">
         <v>12</v>
       </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
       <c r="C100">
         <v>12</v>
       </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101">
         <v>9</v>
       </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>24</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C102">
@@ -2138,136 +2137,136 @@
       <c r="D102">
         <v>2015</v>
       </c>
-      <c r="M102" s="2">
+      <c r="M102" s="3">
         <v>10</v>
       </c>
-      <c r="N102" s="2"/>
+      <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103">
         <v>13</v>
       </c>
       <c r="D103">
         <v>13</v>
       </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
       <c r="C104">
         <v>13</v>
       </c>
       <c r="D104">
         <v>13</v>
       </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
       <c r="C105">
         <v>10</v>
       </c>
       <c r="D105">
         <v>10</v>
       </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>25</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C106">
         <v>2011</v>
       </c>
-      <c r="M106" s="2">
+      <c r="M106" s="3">
         <v>8</v>
       </c>
-      <c r="N106" s="2"/>
+      <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
       <c r="C107">
         <v>26</v>
       </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
       <c r="C108">
         <v>26</v>
       </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
       <c r="C109">
         <v>8</v>
       </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>26</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C110">
         <v>2017</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110" s="3">
         <v>7</v>
       </c>
-      <c r="N110" s="2"/>
+      <c r="N110" s="3"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
       <c r="C111">
         <v>25</v>
       </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
       <c r="C112">
         <v>25</v>
       </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
       <c r="C113">
         <v>7</v>
       </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>27</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C114">
@@ -2279,14 +2278,14 @@
       <c r="E114">
         <v>2024</v>
       </c>
-      <c r="M114" s="2">
+      <c r="M114" s="3">
         <v>9</v>
       </c>
-      <c r="N114" s="2"/>
+      <c r="N114" s="3"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115">
         <v>12</v>
       </c>
@@ -2296,12 +2295,12 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
       <c r="C116">
         <v>12</v>
       </c>
@@ -2311,107 +2310,107 @@
       <c r="E116">
         <v>13</v>
       </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
       <c r="C117">
         <v>9</v>
       </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>28</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C118">
         <v>2019</v>
       </c>
-      <c r="M118" s="2">
+      <c r="M118" s="3">
         <v>7</v>
       </c>
-      <c r="N118" s="2"/>
+      <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
       <c r="C119">
         <v>12</v>
       </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
       <c r="C120">
         <v>12</v>
       </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
       <c r="C121">
         <v>7</v>
       </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>29</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C122">
         <v>2019</v>
       </c>
-      <c r="M122" s="2">
+      <c r="M122" s="3">
         <v>6</v>
       </c>
-      <c r="N122" s="2"/>
+      <c r="N122" s="3"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
       <c r="C123">
         <v>12</v>
       </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
       <c r="C124">
         <v>12</v>
       </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
       <c r="C125">
         <v>6</v>
       </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>30</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C126">
@@ -2423,14 +2422,14 @@
       <c r="E126">
         <v>2020</v>
       </c>
-      <c r="M126" s="2">
+      <c r="M126" s="3">
         <v>7</v>
       </c>
-      <c r="N126" s="2"/>
+      <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
       <c r="C127">
         <v>24</v>
       </c>
@@ -2440,12 +2439,12 @@
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
       <c r="C128">
         <v>24</v>
       </c>
@@ -2455,26 +2454,26 @@
       <c r="E128">
         <v>25</v>
       </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
       <c r="C129">
         <v>7</v>
       </c>
       <c r="D129">
         <v>7</v>
       </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>31</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C130">
@@ -2483,52 +2482,52 @@
       <c r="D130">
         <v>2019</v>
       </c>
-      <c r="M130" s="2">
+      <c r="M130" s="3">
         <v>8</v>
       </c>
-      <c r="N130" s="2"/>
+      <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131">
         <v>12</v>
       </c>
       <c r="D131">
         <v>12</v>
       </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
       <c r="C132">
         <v>12</v>
       </c>
       <c r="D132">
         <v>12</v>
       </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
       <c r="C133">
         <v>8</v>
       </c>
       <c r="D133">
         <v>8</v>
       </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>32</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C134">
@@ -2537,10 +2536,10 @@
       <c r="D134">
         <v>2022</v>
       </c>
-      <c r="M134" s="2">
+      <c r="M134" s="3">
         <v>8</v>
       </c>
-      <c r="N134" s="2"/>
+      <c r="N134" s="3"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -2553,16 +2552,16 @@
       <c r="Z134" s="1"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
       <c r="C135">
         <v>12</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -2575,31 +2574,31 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136">
         <v>12</v>
       </c>
       <c r="D136">
         <v>12</v>
       </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
       <c r="C137">
         <v>8</v>
       </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>33</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C138">
@@ -2608,34 +2607,34 @@
       <c r="D138">
         <v>2023</v>
       </c>
-      <c r="M138" s="2">
+      <c r="M138" s="3">
         <v>8</v>
       </c>
-      <c r="N138" s="2"/>
+      <c r="N138" s="3"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
       <c r="C139">
         <v>12</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140">
         <v>12</v>
       </c>
       <c r="D140">
         <v>12</v>
       </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -2648,13 +2647,13 @@
       <c r="Z140" s="1"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
       <c r="C141">
         <v>8</v>
       </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -2667,61 +2666,61 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>34</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C142">
         <v>2024</v>
       </c>
-      <c r="M142" s="2">
+      <c r="M142" s="3">
         <v>8</v>
       </c>
-      <c r="N142" s="2"/>
+      <c r="N142" s="3"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
       <c r="C143">
         <v>6</v>
       </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
       <c r="C144">
         <v>12</v>
       </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145">
         <v>8</v>
       </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>35</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C146">
         <v>2014</v>
       </c>
-      <c r="M146" s="2">
+      <c r="M146" s="3">
         <v>7</v>
       </c>
-      <c r="N146" s="2"/>
+      <c r="N146" s="3"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -2734,13 +2733,13 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
       <c r="C147">
         <v>12</v>
       </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -2753,28 +2752,28 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
       <c r="C148">
         <v>12</v>
       </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
       <c r="C149">
         <v>7</v>
       </c>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>36</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C150">
@@ -2786,14 +2785,14 @@
       <c r="E150">
         <v>2022</v>
       </c>
-      <c r="M150" s="2">
+      <c r="M150" s="3">
         <v>8</v>
       </c>
-      <c r="N150" s="2"/>
+      <c r="N150" s="3"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
       <c r="C151">
         <v>11</v>
       </c>
@@ -2803,12 +2802,12 @@
       <c r="E151">
         <v>0</v>
       </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
       <c r="C152">
         <v>11</v>
       </c>
@@ -2818,8 +2817,8 @@
       <c r="E152">
         <v>12</v>
       </c>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -2832,13 +2831,13 @@
       <c r="Z152" s="1"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
       <c r="C153">
         <v>8</v>
       </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -2851,10 +2850,10 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>37</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C154">
@@ -2866,14 +2865,14 @@
       <c r="E154">
         <v>2024</v>
       </c>
-      <c r="M154" s="2">
+      <c r="M154" s="3">
         <v>6</v>
       </c>
-      <c r="N154" s="2"/>
+      <c r="N154" s="3"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
       <c r="C155">
         <v>24</v>
       </c>
@@ -2883,12 +2882,12 @@
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
       <c r="C156">
         <v>24</v>
       </c>
@@ -2898,32 +2897,32 @@
       <c r="E156">
         <v>24</v>
       </c>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
       <c r="C157">
         <v>6</v>
       </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>38</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C158">
         <v>2017</v>
       </c>
-      <c r="M158" s="2">
+      <c r="M158" s="3">
         <v>8</v>
       </c>
-      <c r="N158" s="2"/>
+      <c r="N158" s="3"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -2936,13 +2935,13 @@
       <c r="Z158" s="1"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
       <c r="C159">
         <v>12</v>
       </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -2955,28 +2954,28 @@
       <c r="Z159" s="1"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
       <c r="C160">
         <v>12</v>
       </c>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
       <c r="C161">
         <v>8</v>
       </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>39</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C162">
@@ -2985,34 +2984,34 @@
       <c r="D162">
         <v>2014</v>
       </c>
-      <c r="M162" s="2">
+      <c r="M162" s="3">
         <v>9</v>
       </c>
-      <c r="N162" s="2"/>
+      <c r="N162" s="3"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
       <c r="C163">
         <v>12</v>
       </c>
       <c r="D163">
         <v>0</v>
       </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
       <c r="C164">
         <v>12</v>
       </c>
       <c r="D164">
         <v>12</v>
       </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -3025,13 +3024,13 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
       <c r="C165">
         <v>9</v>
       </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -3056,7 +3055,7 @@
       <c r="M166" s="3">
         <v>6</v>
       </c>
-      <c r="N166" s="2"/>
+      <c r="N166" s="3"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
@@ -3065,7 +3064,7 @@
         <v>24</v>
       </c>
       <c r="M167" s="3"/>
-      <c r="N167" s="2"/>
+      <c r="N167" s="3"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
@@ -3074,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="M168" s="3"/>
-      <c r="N168" s="2"/>
+      <c r="N168" s="3"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
@@ -3083,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="M169" s="3"/>
-      <c r="N169" s="2"/>
+      <c r="N169" s="3"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
@@ -3110,7 +3109,7 @@
       <c r="M170" s="3">
         <v>10</v>
       </c>
-      <c r="N170" s="2"/>
+      <c r="N170" s="3"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
@@ -3131,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="M171" s="3"/>
-      <c r="N171" s="2"/>
+      <c r="N171" s="3"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
@@ -3152,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="M172" s="3"/>
-      <c r="N172" s="2"/>
+      <c r="N172" s="3"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
@@ -3167,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="M173" s="3"/>
-      <c r="N173" s="2"/>
+      <c r="N173" s="3"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
@@ -3182,7 +3181,7 @@
       <c r="M174" s="3">
         <v>6</v>
       </c>
-      <c r="N174" s="2"/>
+      <c r="N174" s="3"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
@@ -3191,7 +3190,7 @@
         <v>12</v>
       </c>
       <c r="M175" s="3"/>
-      <c r="N175" s="2"/>
+      <c r="N175" s="3"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
@@ -3200,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="M176" s="3"/>
-      <c r="N176" s="2"/>
+      <c r="N176" s="3"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
@@ -3209,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="M177" s="3"/>
-      <c r="N177" s="2"/>
+      <c r="N177" s="3"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
@@ -3224,7 +3223,7 @@
       <c r="M178" s="3">
         <v>8</v>
       </c>
-      <c r="N178" s="2"/>
+      <c r="N178" s="3"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
@@ -3233,7 +3232,7 @@
         <v>24</v>
       </c>
       <c r="M179" s="3"/>
-      <c r="N179" s="2"/>
+      <c r="N179" s="3"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
@@ -3242,7 +3241,7 @@
         <v>24</v>
       </c>
       <c r="M180" s="3"/>
-      <c r="N180" s="2"/>
+      <c r="N180" s="3"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
@@ -3251,7 +3250,7 @@
         <v>8</v>
       </c>
       <c r="M181" s="3"/>
-      <c r="N181" s="2"/>
+      <c r="N181" s="3"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
@@ -3272,7 +3271,7 @@
       <c r="M182" s="3">
         <v>10</v>
       </c>
-      <c r="N182" s="2"/>
+      <c r="N182" s="3"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
@@ -3287,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="M183" s="3"/>
-      <c r="N183" s="2"/>
+      <c r="N183" s="3"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
@@ -3302,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="M184" s="3"/>
-      <c r="N184" s="2"/>
+      <c r="N184" s="3"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
@@ -3311,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="M185" s="3"/>
-      <c r="N185" s="2"/>
+      <c r="N185" s="3"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
@@ -3326,7 +3325,7 @@
       <c r="M186" s="3">
         <v>10</v>
       </c>
-      <c r="N186" s="2"/>
+      <c r="N186" s="3"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
@@ -3335,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="M187" s="3"/>
-      <c r="N187" s="2"/>
+      <c r="N187" s="3"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
@@ -3344,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="M188" s="3"/>
-      <c r="N188" s="2"/>
+      <c r="N188" s="3"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
@@ -3353,7 +3352,7 @@
         <v>10</v>
       </c>
       <c r="M189" s="3"/>
-      <c r="N189" s="2"/>
+      <c r="N189" s="3"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
@@ -3368,7 +3367,7 @@
       <c r="M190" s="3">
         <v>6</v>
       </c>
-      <c r="N190" s="2"/>
+      <c r="N190" s="3"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
@@ -3377,7 +3376,7 @@
         <v>12</v>
       </c>
       <c r="M191" s="3"/>
-      <c r="N191" s="2"/>
+      <c r="N191" s="3"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
@@ -3386,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="M192" s="3"/>
-      <c r="N192" s="2"/>
+      <c r="N192" s="3"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
@@ -3395,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="M193" s="3"/>
-      <c r="N193" s="2"/>
+      <c r="N193" s="3"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
@@ -3410,7 +3409,7 @@
       <c r="M194" s="3">
         <v>7</v>
       </c>
-      <c r="N194" s="2"/>
+      <c r="N194" s="3"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
@@ -3419,7 +3418,7 @@
         <v>8</v>
       </c>
       <c r="M195" s="3"/>
-      <c r="N195" s="2"/>
+      <c r="N195" s="3"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
@@ -3428,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="M196" s="3"/>
-      <c r="N196" s="2"/>
+      <c r="N196" s="3"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
@@ -3437,133 +3436,215 @@
         <v>7</v>
       </c>
       <c r="M197" s="3"/>
-      <c r="N197" s="2"/>
+      <c r="N197" s="3"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="M198" s="2"/>
-      <c r="N198" s="2"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="M200" s="2"/>
-      <c r="N200" s="2"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="M204" s="2"/>
-      <c r="N204" s="2"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="M206" s="2"/>
-      <c r="N206" s="2"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="M207" s="2"/>
-      <c r="N207" s="2"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="M202:M205"/>
-    <mergeCell ref="N202:N205"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="M206:M209"/>
-    <mergeCell ref="N206:N209"/>
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
     <mergeCell ref="M122:M125"/>
     <mergeCell ref="M134:M137"/>
     <mergeCell ref="M146:M149"/>
@@ -3588,139 +3669,57 @@
     <mergeCell ref="N130:N133"/>
     <mergeCell ref="N158:N161"/>
     <mergeCell ref="M162:M165"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="M202:M205"/>
+    <mergeCell ref="N202:N205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="M206:M209"/>
+    <mergeCell ref="N206:N209"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3733,7 +3732,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4136,7 +4135,7 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>123</v>
       </c>
     </row>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21946D5B-D62F-4747-ABED-D3A5F2CC9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A747839-59F8-4F7A-B55F-E643EAE8F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="1695" windowWidth="16800" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +510,45 @@
   </si>
   <si>
     <t>,Tis Time for ,Torture,, Princess.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評論</t>
+  </si>
+  <si>
+    <t>評論</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一一部有收全小說的作品，可惜地底世界後面爛掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇情還行，結局有點草率，但動畫跟音樂很棒，尤其是動畫，沒看過演出這麼猛的，是部光動畫品質就值得推薦其他人看的作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可愛的龍傲天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神，劇情跟音樂都很棒，尤其主角社恐發作做出的各種抽象行為太可愛了，這根本就是我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八點檔少女樂隊番，很神奇的一部作品，前面各種狗血劇情，但後面收得不錯，好評</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神，劇情作畫音樂完全無可挑剔，每集看每集哭，可以被稱得上是藝術品的作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神，作畫跟音樂都是上乘，而劇情則是可以讓人大量深刻反思的作品，我認為這部作品帶給了我們現今社會越來越缺乏的各種待人處事之道，並且這些道理與劇情融合得非常完美，常常看著看著不知不覺就看到心裡了，評分這種東西是主觀的，一部作品每個人給的分數不同才正常，但這部我覺得每個看過的都應該給滿分，且每個人都應該去看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可愛至上，可愛就完事了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,11 +592,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -840,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110:M113"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,7 +893,7 @@
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -896,8 +936,11 @@
       <c r="N1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -913,8 +956,11 @@
       <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
@@ -922,8 +968,9 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -931,8 +978,9 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
@@ -940,8 +988,9 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -957,8 +1006,11 @@
       <c r="O6" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7">
@@ -966,8 +1018,9 @@
       </c>
       <c r="M7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8">
@@ -975,8 +1028,9 @@
       </c>
       <c r="M8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9">
@@ -984,8 +1038,9 @@
       </c>
       <c r="M9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1010,8 +1065,11 @@
       <c r="O10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11">
@@ -1028,8 +1086,9 @@
       </c>
       <c r="M11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12">
@@ -1046,8 +1105,9 @@
       </c>
       <c r="M12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13">
@@ -1060,8 +1120,9 @@
       <c r="F13" s="1"/>
       <c r="M13" s="3"/>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -1089,8 +1150,11 @@
       <c r="O14" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15">
@@ -1110,8 +1174,9 @@
       </c>
       <c r="M15" s="3"/>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16">
@@ -1131,8 +1196,9 @@
       </c>
       <c r="M16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17">
@@ -1143,8 +1209,9 @@
       </c>
       <c r="M17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -1163,8 +1230,11 @@
       <c r="O18" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19">
@@ -1175,8 +1245,9 @@
       </c>
       <c r="M19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20">
@@ -1187,8 +1258,9 @@
       </c>
       <c r="M20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21">
@@ -1197,8 +1269,9 @@
       <c r="D21" s="1"/>
       <c r="M21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -1214,8 +1287,11 @@
       <c r="O22" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23">
@@ -1223,8 +1299,9 @@
       </c>
       <c r="M23" s="3"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24">
@@ -1232,8 +1309,9 @@
       </c>
       <c r="M24" s="3"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25">
@@ -1241,8 +1319,9 @@
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -1256,8 +1335,11 @@
         <v>8</v>
       </c>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27">
@@ -1265,8 +1347,9 @@
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28">
@@ -1274,8 +1357,9 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29">
@@ -1283,8 +1367,9 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6</v>
       </c>
@@ -1298,8 +1383,11 @@
         <v>10</v>
       </c>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31">
@@ -1307,8 +1395,9 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32">
@@ -1316,8 +1405,9 @@
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33">
@@ -1325,8 +1415,9 @@
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>7</v>
       </c>
@@ -1340,8 +1431,11 @@
         <v>8</v>
       </c>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35">
@@ -1349,8 +1443,9 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36">
@@ -1358,8 +1453,9 @@
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37">
@@ -1367,8 +1463,9 @@
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -1385,8 +1482,9 @@
         <v>10</v>
       </c>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39">
@@ -1397,8 +1495,9 @@
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40">
@@ -1409,8 +1508,9 @@
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41">
@@ -1421,8 +1521,9 @@
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9</v>
       </c>
@@ -1439,8 +1540,9 @@
         <v>10</v>
       </c>
       <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43">
@@ -1451,8 +1553,9 @@
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44">
@@ -1463,8 +1566,9 @@
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45">
@@ -1475,8 +1579,9 @@
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>10</v>
       </c>
@@ -1490,8 +1595,9 @@
         <v>10</v>
       </c>
       <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47">
@@ -1499,8 +1605,9 @@
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48">
@@ -1508,8 +1615,9 @@
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49">
@@ -1517,8 +1625,9 @@
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>11</v>
       </c>
@@ -1532,8 +1641,9 @@
         <v>9</v>
       </c>
       <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51">
@@ -1541,8 +1651,9 @@
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52">
@@ -1550,8 +1661,9 @@
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53">
@@ -1559,8 +1671,9 @@
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>12</v>
       </c>
@@ -1574,8 +1687,9 @@
         <v>8</v>
       </c>
       <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55">
@@ -1583,8 +1697,9 @@
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56">
@@ -1592,8 +1707,9 @@
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57">
@@ -1601,8 +1717,9 @@
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>13</v>
       </c>
@@ -1616,8 +1733,9 @@
         <v>8</v>
       </c>
       <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59">
@@ -1625,8 +1743,9 @@
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60">
@@ -1634,8 +1753,9 @@
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61">
@@ -1643,8 +1763,9 @@
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>14</v>
       </c>
@@ -1664,8 +1785,9 @@
         <v>10</v>
       </c>
       <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63">
@@ -1679,8 +1801,9 @@
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64">
@@ -1694,8 +1817,9 @@
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65">
@@ -1709,8 +1833,9 @@
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>15</v>
       </c>
@@ -1724,8 +1849,9 @@
         <v>7</v>
       </c>
       <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67">
@@ -1733,8 +1859,9 @@
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68">
@@ -1742,8 +1869,9 @@
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69">
@@ -1751,8 +1879,9 @@
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>16</v>
       </c>
@@ -1766,8 +1895,9 @@
         <v>9</v>
       </c>
       <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71">
@@ -1775,8 +1905,9 @@
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72">
@@ -1784,8 +1915,9 @@
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73">
@@ -1793,8 +1925,9 @@
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>17</v>
       </c>
@@ -1808,8 +1941,9 @@
         <v>8.5</v>
       </c>
       <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75">
@@ -1817,8 +1951,9 @@
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76">
@@ -1826,8 +1961,9 @@
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77">
@@ -1835,8 +1971,9 @@
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P77" s="3"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>18</v>
       </c>
@@ -1853,8 +1990,9 @@
         <v>6</v>
       </c>
       <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P78" s="3"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79">
@@ -1865,8 +2003,9 @@
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P79" s="3"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80">
@@ -1877,8 +2016,9 @@
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81">
@@ -1886,8 +2026,9 @@
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>19</v>
       </c>
@@ -1904,8 +2045,9 @@
         <v>9</v>
       </c>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83">
@@ -1916,8 +2058,9 @@
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84">
@@ -1928,8 +2071,9 @@
       </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85">
@@ -1937,8 +2081,9 @@
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>20</v>
       </c>
@@ -1955,8 +2100,9 @@
         <v>7</v>
       </c>
       <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87">
@@ -1967,8 +2113,9 @@
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88">
@@ -1979,8 +2126,9 @@
       </c>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89">
@@ -1988,8 +2136,9 @@
       </c>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>21</v>
       </c>
@@ -2003,8 +2152,9 @@
         <v>8.5</v>
       </c>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91">
@@ -2012,8 +2162,9 @@
       </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92">
@@ -2021,8 +2172,9 @@
       </c>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93">
@@ -2030,8 +2182,9 @@
       </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>22</v>
       </c>
@@ -2045,8 +2198,9 @@
         <v>9</v>
       </c>
       <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95">
@@ -2054,8 +2208,9 @@
       </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96">
@@ -2063,8 +2218,9 @@
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97">
@@ -2081,8 +2237,9 @@
       <c r="L97" s="1"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>23</v>
       </c>
@@ -2096,8 +2253,9 @@
         <v>9</v>
       </c>
       <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99">
@@ -2105,8 +2263,9 @@
       </c>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100">
@@ -2114,8 +2273,9 @@
       </c>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101">
@@ -2123,8 +2283,9 @@
       </c>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>24</v>
       </c>
@@ -2141,8 +2302,9 @@
         <v>10</v>
       </c>
       <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P102" s="3"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103">
@@ -2153,8 +2315,9 @@
       </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P103" s="3"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104">
@@ -2165,8 +2328,9 @@
       </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P104" s="3"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105">
@@ -2177,8 +2341,9 @@
       </c>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P105" s="3"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>25</v>
       </c>
@@ -2192,8 +2357,9 @@
         <v>8</v>
       </c>
       <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P106" s="3"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107">
@@ -2201,8 +2367,9 @@
       </c>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P107" s="3"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108">
@@ -2210,8 +2377,9 @@
       </c>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P108" s="3"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109">
@@ -2219,8 +2387,9 @@
       </c>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P109" s="3"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>26</v>
       </c>
@@ -2234,8 +2403,9 @@
         <v>7</v>
       </c>
       <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P110" s="3"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111">
@@ -2243,8 +2413,9 @@
       </c>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P111" s="3"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112">
@@ -2252,8 +2423,9 @@
       </c>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P112" s="3"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113">
@@ -2261,8 +2433,9 @@
       </c>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P113" s="3"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>27</v>
       </c>
@@ -2282,8 +2455,9 @@
         <v>9</v>
       </c>
       <c r="N114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P114" s="3"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115">
@@ -2297,8 +2471,9 @@
       </c>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P115" s="3"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116">
@@ -2312,8 +2487,9 @@
       </c>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P116" s="3"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117">
@@ -2321,8 +2497,9 @@
       </c>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P117" s="3"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>28</v>
       </c>
@@ -2336,8 +2513,9 @@
         <v>7</v>
       </c>
       <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P118" s="3"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119">
@@ -2345,8 +2523,9 @@
       </c>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P119" s="3"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120">
@@ -2354,8 +2533,9 @@
       </c>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P120" s="3"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121">
@@ -2363,8 +2543,9 @@
       </c>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P121" s="3"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>29</v>
       </c>
@@ -2378,8 +2559,9 @@
         <v>6</v>
       </c>
       <c r="N122" s="3"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P122" s="3"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123">
@@ -2387,8 +2569,9 @@
       </c>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P123" s="3"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124">
@@ -2396,8 +2579,9 @@
       </c>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P124" s="3"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125">
@@ -2405,8 +2589,9 @@
       </c>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P125" s="3"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>30</v>
       </c>
@@ -2426,8 +2611,9 @@
         <v>7</v>
       </c>
       <c r="N126" s="3"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P126" s="3"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127">
@@ -2441,8 +2627,9 @@
       </c>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P127" s="3"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128">
@@ -2456,6 +2643,7 @@
       </c>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
+      <c r="P128" s="3"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
@@ -2468,6 +2656,7 @@
       </c>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
+      <c r="P129" s="3"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
@@ -2486,6 +2675,7 @@
         <v>8</v>
       </c>
       <c r="N130" s="3"/>
+      <c r="P130" s="3"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
@@ -2498,6 +2688,7 @@
       </c>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
+      <c r="P131" s="3"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -2510,6 +2701,7 @@
       </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
+      <c r="P132" s="3"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -2522,6 +2714,7 @@
       </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
+      <c r="P133" s="3"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
@@ -2540,6 +2733,7 @@
         <v>8</v>
       </c>
       <c r="N134" s="3"/>
+      <c r="P134" s="3"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -2562,6 +2756,7 @@
       </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
+      <c r="P135" s="3"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -2584,6 +2779,7 @@
       </c>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
+      <c r="P136" s="3"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -2593,6 +2789,7 @@
       </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
+      <c r="P137" s="3"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
@@ -2611,6 +2808,7 @@
         <v>8</v>
       </c>
       <c r="N138" s="3"/>
+      <c r="P138" s="3"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
@@ -2623,6 +2821,7 @@
       </c>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
+      <c r="P139" s="3"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
@@ -2635,6 +2834,7 @@
       </c>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
+      <c r="P140" s="3"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -2654,6 +2854,7 @@
       </c>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
+      <c r="P141" s="3"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -2679,6 +2880,7 @@
         <v>8</v>
       </c>
       <c r="N142" s="3"/>
+      <c r="P142" s="3"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -2688,6 +2890,7 @@
       </c>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
+      <c r="P143" s="3"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
@@ -2697,6 +2900,7 @@
       </c>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
+      <c r="P144" s="3"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
@@ -2706,6 +2910,7 @@
       </c>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
+      <c r="P145" s="3"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
@@ -2721,6 +2926,7 @@
         <v>7</v>
       </c>
       <c r="N146" s="3"/>
+      <c r="P146" s="3"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -2740,6 +2946,7 @@
       </c>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
+      <c r="P147" s="3"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -2759,6 +2966,7 @@
       </c>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
+      <c r="P148" s="3"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
@@ -2768,6 +2976,7 @@
       </c>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
+      <c r="P149" s="3"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
@@ -2789,6 +2998,7 @@
         <v>8</v>
       </c>
       <c r="N150" s="3"/>
+      <c r="P150" s="3"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
@@ -2804,6 +3014,7 @@
       </c>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
+      <c r="P151" s="3"/>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
@@ -2819,6 +3030,7 @@
       </c>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
+      <c r="P152" s="3"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -2838,6 +3050,7 @@
       </c>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
+      <c r="P153" s="3"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -2869,6 +3082,7 @@
         <v>6</v>
       </c>
       <c r="N154" s="3"/>
+      <c r="P154" s="3"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -2884,6 +3098,7 @@
       </c>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
+      <c r="P155" s="3"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
@@ -2899,6 +3114,7 @@
       </c>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
+      <c r="P156" s="3"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
@@ -2908,6 +3124,7 @@
       </c>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
+      <c r="P157" s="3"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
@@ -2923,6 +3140,7 @@
         <v>8</v>
       </c>
       <c r="N158" s="3"/>
+      <c r="P158" s="3"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -2942,6 +3160,7 @@
       </c>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
+      <c r="P159" s="3"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -2961,6 +3180,7 @@
       </c>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
+      <c r="P160" s="3"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
@@ -2970,6 +3190,7 @@
       </c>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
+      <c r="P161" s="3"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
@@ -2988,6 +3209,7 @@
         <v>9</v>
       </c>
       <c r="N162" s="3"/>
+      <c r="P162" s="3"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
@@ -3000,6 +3222,7 @@
       </c>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
+      <c r="P163" s="3"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
@@ -3012,6 +3235,7 @@
       </c>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
+      <c r="P164" s="3"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -3031,6 +3255,7 @@
       </c>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
+      <c r="P165" s="3"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -3056,6 +3281,7 @@
         <v>6</v>
       </c>
       <c r="N166" s="3"/>
+      <c r="P166" s="3"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
@@ -3065,6 +3291,7 @@
       </c>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
+      <c r="P167" s="3"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
@@ -3074,6 +3301,7 @@
       </c>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
+      <c r="P168" s="3"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
@@ -3083,6 +3311,7 @@
       </c>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
+      <c r="P169" s="3"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
@@ -3110,6 +3339,7 @@
         <v>10</v>
       </c>
       <c r="N170" s="3"/>
+      <c r="P170" s="3"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
@@ -3131,6 +3361,7 @@
       </c>
       <c r="M171" s="3"/>
       <c r="N171" s="3"/>
+      <c r="P171" s="3"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
@@ -3152,6 +3383,7 @@
       </c>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
+      <c r="P172" s="3"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
@@ -3167,6 +3399,7 @@
       </c>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
+      <c r="P173" s="3"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
@@ -3182,6 +3415,7 @@
         <v>6</v>
       </c>
       <c r="N174" s="3"/>
+      <c r="P174" s="3"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
@@ -3191,6 +3425,7 @@
       </c>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
+      <c r="P175" s="3"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
@@ -3200,8 +3435,9 @@
       </c>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P176" s="3"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177">
@@ -3209,8 +3445,9 @@
       </c>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P177" s="3"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>43</v>
       </c>
@@ -3224,8 +3461,9 @@
         <v>8</v>
       </c>
       <c r="N178" s="3"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P178" s="3"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179">
@@ -3233,8 +3471,9 @@
       </c>
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P179" s="3"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180">
@@ -3242,8 +3481,9 @@
       </c>
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P180" s="3"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181">
@@ -3251,8 +3491,9 @@
       </c>
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P181" s="3"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44</v>
       </c>
@@ -3272,8 +3513,9 @@
         <v>10</v>
       </c>
       <c r="N182" s="3"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P182" s="3"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183">
@@ -3287,8 +3529,9 @@
       </c>
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P183" s="3"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184">
@@ -3302,8 +3545,9 @@
       </c>
       <c r="M184" s="3"/>
       <c r="N184" s="3"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P184" s="3"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185">
@@ -3311,8 +3555,9 @@
       </c>
       <c r="M185" s="3"/>
       <c r="N185" s="3"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P185" s="3"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>45</v>
       </c>
@@ -3326,8 +3571,9 @@
         <v>10</v>
       </c>
       <c r="N186" s="3"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P186" s="3"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187">
@@ -3335,8 +3581,9 @@
       </c>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P187" s="3"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188">
@@ -3344,8 +3591,9 @@
       </c>
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P188" s="3"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189">
@@ -3353,8 +3601,9 @@
       </c>
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P189" s="3"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>46</v>
       </c>
@@ -3368,8 +3617,9 @@
         <v>6</v>
       </c>
       <c r="N190" s="3"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P190" s="3"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191">
@@ -3377,8 +3627,9 @@
       </c>
       <c r="M191" s="3"/>
       <c r="N191" s="3"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P191" s="3"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192">
@@ -3386,8 +3637,9 @@
       </c>
       <c r="M192" s="3"/>
       <c r="N192" s="3"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P192" s="3"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193">
@@ -3395,8 +3647,9 @@
       </c>
       <c r="M193" s="3"/>
       <c r="N193" s="3"/>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P193" s="3"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>47</v>
       </c>
@@ -3410,8 +3663,9 @@
         <v>7</v>
       </c>
       <c r="N194" s="3"/>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P194" s="3"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195">
@@ -3419,8 +3673,9 @@
       </c>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P195" s="3"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196">
@@ -3428,8 +3683,9 @@
       </c>
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P196" s="3"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197">
@@ -3437,68 +3693,69 @@
       </c>
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P197" s="3"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="M198" s="3"/>
       <c r="N198" s="3"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="M199" s="3"/>
       <c r="N199" s="3"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="M200" s="3"/>
       <c r="N200" s="3"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="M205" s="3"/>
       <c r="N205" s="3"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="M206" s="3"/>
       <c r="N206" s="3"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="M207" s="3"/>
       <c r="N207" s="3"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="M208" s="3"/>
@@ -3511,40 +3768,207 @@
       <c r="N209" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="208">
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
+  <mergeCells count="257">
+    <mergeCell ref="P182:P185"/>
+    <mergeCell ref="P186:P189"/>
+    <mergeCell ref="P190:P193"/>
+    <mergeCell ref="P194:P197"/>
+    <mergeCell ref="P146:P149"/>
+    <mergeCell ref="P150:P153"/>
+    <mergeCell ref="P154:P157"/>
+    <mergeCell ref="P158:P161"/>
+    <mergeCell ref="P162:P165"/>
+    <mergeCell ref="P166:P169"/>
+    <mergeCell ref="P170:P173"/>
+    <mergeCell ref="P174:P177"/>
+    <mergeCell ref="P178:P181"/>
+    <mergeCell ref="P110:P113"/>
+    <mergeCell ref="P114:P117"/>
+    <mergeCell ref="P118:P121"/>
+    <mergeCell ref="P122:P125"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="P130:P133"/>
+    <mergeCell ref="P134:P137"/>
+    <mergeCell ref="P138:P141"/>
+    <mergeCell ref="P142:P145"/>
+    <mergeCell ref="P74:P77"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="P82:P85"/>
+    <mergeCell ref="P86:P89"/>
+    <mergeCell ref="P90:P93"/>
+    <mergeCell ref="P94:P97"/>
+    <mergeCell ref="P98:P101"/>
+    <mergeCell ref="P102:P105"/>
+    <mergeCell ref="P106:P109"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="P50:P53"/>
+    <mergeCell ref="P54:P57"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="P62:P65"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="P70:P73"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="M202:M205"/>
+    <mergeCell ref="N202:N205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="M206:M209"/>
+    <mergeCell ref="N206:N209"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="M122:M125"/>
+    <mergeCell ref="M134:M137"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="M158:M161"/>
+    <mergeCell ref="M170:M173"/>
+    <mergeCell ref="M182:M185"/>
+    <mergeCell ref="M194:M197"/>
+    <mergeCell ref="N110:N113"/>
+    <mergeCell ref="M114:M117"/>
+    <mergeCell ref="N114:N117"/>
+    <mergeCell ref="M118:M121"/>
+    <mergeCell ref="N118:N121"/>
+    <mergeCell ref="N134:N137"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="N138:N141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="N142:N145"/>
+    <mergeCell ref="N122:N125"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="M130:M133"/>
+    <mergeCell ref="N130:N133"/>
+    <mergeCell ref="N158:N161"/>
+    <mergeCell ref="M162:M165"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
     <mergeCell ref="N54:N57"/>
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="B58:B61"/>
@@ -3569,157 +3993,39 @@
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="M50:M53"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="M122:M125"/>
-    <mergeCell ref="M134:M137"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="M158:M161"/>
-    <mergeCell ref="M170:M173"/>
-    <mergeCell ref="M182:M185"/>
-    <mergeCell ref="M194:M197"/>
-    <mergeCell ref="N110:N113"/>
-    <mergeCell ref="M114:M117"/>
-    <mergeCell ref="N114:N117"/>
-    <mergeCell ref="M118:M121"/>
-    <mergeCell ref="N118:N121"/>
-    <mergeCell ref="N134:N137"/>
-    <mergeCell ref="M138:M141"/>
-    <mergeCell ref="N138:N141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="N142:N145"/>
-    <mergeCell ref="N122:N125"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="M130:M133"/>
-    <mergeCell ref="N130:N133"/>
-    <mergeCell ref="N158:N161"/>
-    <mergeCell ref="M162:M165"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="M202:M205"/>
-    <mergeCell ref="N202:N205"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="M206:M209"/>
-    <mergeCell ref="N206:N209"/>
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3731,7 +4037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>

--- a/database/data_anime.xlsx
+++ b/database/data_anime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A747839-59F8-4F7A-B55F-E643EAE8F4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AE606B-BAA0-4119-84AD-3459B2BB9F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="159">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唯一一部有收全小說的作品，可惜地底世界後面爛掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>劇情還行，結局有點草率，但動畫跟音樂很棒，尤其是動畫，沒看過演出這麼猛的，是部光動畫品質就值得推薦其他人看的作品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +545,142 @@
   </si>
   <si>
     <t>可愛至上，可愛就完事了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超級可愛，而且是陪伴我很久的一部動畫，滿滿回憶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帥慘了，對當初正值中二病的我影響很深xd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神，米澤老師永遠的神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士超級可愛，沒了:3(好啦其他人之間的互動也很有趣xd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩個可愛的少女在戰後孤獨的末日極地下還能夠積極樂觀地踏上旅程，這種反差感讓我印象非常深刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一部普通的鬥智類作品，但我喜歡鬥智所以給高分:3，有機會想收全實體小說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一一部有收全實體小說的作品，可惜地底世界後面爛掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於異世界題材頂點的作品，這部給9分我想不到其他異世界有誰可以給10分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看著女主為了男主做出各種自爆羞恥發明超級好笑www</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很棒，各種意義上很美的一部作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看過最好笑的作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強調推理不是找真相，而是為了讓人相信自己的主張的作品，顛覆了一般推理作品應該要有的基於事實的嚴謹性，對於喜歡看推理作品的我來說算蠻新奇的，整體還行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整體來說算很不錯的作品，世界觀、鬥智跟旅行的部分我都很喜歡，可惜結尾普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很腦洞的作品，妙很可愛w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常好笑的作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強打鬥番，打鬥畫面每一下都看得到，而不是用特效或轉場帶過去，非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了劇情音樂畫風還有Fate的IP外，世界觀跟氛圍也都很棒，還有格蕾很讚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很喜歡故事中各種規則超複雜的競賽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就，少女健身番，蠻有趣的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮姐就是帥，然後不知道為啥我挺喜歡黑子的聲音w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很喜歡劇中各種瘋子跟超強顏藝www</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>前無古人後無來者的奇耙作品，不知道作者到底吸了啥www，凸(#ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ﾟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)凸</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經典異世界龍傲天，還行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫風跟音樂我很喜歡，但重點是劇情，是最讓我出乎意料的一部作品，完全猜不到接下來會怎麼發展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神，可愛休閒番，壓力大或有負面情緒的時候看一集就能滿血恢復</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡麵番，跟搖曳露營一樣棒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +702,20 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -880,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:P37"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="P194" sqref="P194:P197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1153,7 @@
         <v>20</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1066,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1151,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1230,8 +1376,8 @@
       <c r="O18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>128</v>
+      <c r="P18" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1245,7 +1391,7 @@
       </c>
       <c r="M19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1258,7 +1404,7 @@
       </c>
       <c r="M20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1269,7 +1415,7 @@
       <c r="D21" s="1"/>
       <c r="M21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1287,8 +1433,8 @@
       <c r="O22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>129</v>
+      <c r="P22" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1299,7 +1445,7 @@
       </c>
       <c r="M23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1309,7 +1455,7 @@
       </c>
       <c r="M24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1319,7 +1465,7 @@
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1335,8 +1481,8 @@
         <v>8</v>
       </c>
       <c r="N26" s="3"/>
-      <c r="P26" s="4" t="s">
-        <v>130</v>
+      <c r="P26" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1347,7 +1493,7 @@
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="P27" s="4"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1357,7 +1503,7 @@
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="P28" s="4"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1367,7 +1513,7 @@
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="P29" s="4"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1383,8 +1529,8 @@
         <v>10</v>
       </c>
       <c r="N30" s="3"/>
-      <c r="P30" s="4" t="s">
-        <v>132</v>
+      <c r="P30" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -1395,7 +1541,7 @@
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1405,7 +1551,7 @@
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="P32" s="4"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1415,7 +1561,7 @@
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -1431,8 +1577,8 @@
         <v>8</v>
       </c>
       <c r="N34" s="3"/>
-      <c r="P34" s="4" t="s">
-        <v>133</v>
+      <c r="P34" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -1443,7 +1589,7 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1453,7 +1599,7 @@
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -1463,7 +1609,7 @@
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="P37" s="4"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -1482,7 +1628,9 @@
         <v>10</v>
       </c>
       <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -1495,7 +1643,7 @@
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="P39" s="4"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1508,7 +1656,7 @@
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="P40" s="4"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -1521,7 +1669,7 @@
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="4"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -1540,7 +1688,9 @@
         <v>10</v>
       </c>
       <c r="N42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -1553,7 +1703,7 @@
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -1566,7 +1716,7 @@
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="P44" s="4"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1579,7 +1729,7 @@
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="P45" s="3"/>
+      <c r="P45" s="4"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -1595,7 +1745,9 @@
         <v>10</v>
       </c>
       <c r="N46" s="3"/>
-      <c r="P46" s="3"/>
+      <c r="P46" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1605,7 +1757,7 @@
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1615,7 +1767,7 @@
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="4"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1625,7 +1777,7 @@
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="P49" s="4"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -1641,7 +1793,9 @@
         <v>9</v>
       </c>
       <c r="N50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="P50" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
@@ -1651,7 +1805,7 @@
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="P51" s="3"/>
+      <c r="P51" s="4"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -1661,7 +1815,7 @@
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="P52" s="3"/>
+      <c r="P52" s="4"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -1671,7 +1825,7 @@
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="P53" s="4"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
@@ -1687,7 +1841,9 @@
         <v>8</v>
       </c>
       <c r="N54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="P54" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
@@ -1697,7 +1853,7 @@
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="P55" s="4"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -1707,7 +1863,7 @@
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="P56" s="3"/>
+      <c r="P56" s="4"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -1717,7 +1873,7 @@
       </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="P57" s="4"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -1733,7 +1889,9 @@
         <v>8</v>
       </c>
       <c r="N58" s="3"/>
-      <c r="P58" s="3"/>
+      <c r="P58" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -1743,7 +1901,7 @@
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="P59" s="4"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -1753,7 +1911,7 @@
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -1763,7 +1921,7 @@
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -1785,7 +1943,9 @@
         <v>10</v>
       </c>
       <c r="N62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="P62" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -1801,7 +1961,7 @@
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="P63" s="4"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -1817,7 +1977,7 @@
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="P64" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -1833,7 +1993,7 @@
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="P65" s="4"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
@@ -1849,7 +2009,9 @@
         <v>7</v>
       </c>
       <c r="N66" s="3"/>
-      <c r="P66" s="3"/>
+      <c r="P66" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -1859,7 +2021,7 @@
       </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="P67" s="4"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -1869,7 +2031,7 @@
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="P68" s="3"/>
+      <c r="P68" s="4"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -1879,7 +2041,7 @@
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="P69" s="4"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
@@ -1895,7 +2057,9 @@
         <v>9</v>
       </c>
       <c r="N70" s="3"/>
-      <c r="P70" s="3"/>
+      <c r="P70" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -1905,7 +2069,7 @@
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="P71" s="4"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -1915,7 +2079,7 @@
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="P72" s="3"/>
+      <c r="P72" s="4"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -1925,7 +2089,7 @@
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="P73" s="3"/>
+      <c r="P73" s="4"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
@@ -1941,7 +2105,9 @@
         <v>8.5</v>
       </c>
       <c r="N74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="P74" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -1951,7 +2117,7 @@
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="P75" s="3"/>
+      <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -1961,7 +2127,7 @@
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="P76" s="3"/>
+      <c r="P76" s="4"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -1971,7 +2137,7 @@
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="P77" s="3"/>
+      <c r="P77" s="4"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
@@ -1990,7 +2156,9 @@
         <v>6</v>
       </c>
       <c r="N78" s="3"/>
-      <c r="P78" s="3"/>
+      <c r="P78" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -2003,7 +2171,7 @@
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="P79" s="4"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -2016,7 +2184,7 @@
       </c>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="P80" s="3"/>
+      <c r="P80" s="4"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -2026,7 +2194,7 @@
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="P81" s="4"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
@@ -2042,10 +2210,12 @@
         <v>2021</v>
       </c>
       <c r="M82" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N82" s="3"/>
-      <c r="P82" s="3"/>
+      <c r="P82" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -2058,7 +2228,7 @@
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="P83" s="3"/>
+      <c r="P83" s="4"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2071,7 +2241,7 @@
       </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="P84" s="3"/>
+      <c r="P84" s="4"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -2081,7 +2251,7 @@
       </c>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="P85" s="3"/>
+      <c r="P85" s="4"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
@@ -2097,10 +2267,12 @@
         <v>2021</v>
       </c>
       <c r="M86" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N86" s="3"/>
-      <c r="P86" s="3"/>
+      <c r="P86" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2113,7 +2285,7 @@
       </c>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="P87" s="3"/>
+      <c r="P87" s="4"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -2126,7 +2298,7 @@
       </c>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="P88" s="3"/>
+      <c r="P88" s="4"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -2136,7 +2308,7 @@
       </c>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="P89" s="3"/>
+      <c r="P89" s="4"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
@@ -2152,7 +2324,9 @@
         <v>8.5</v>
       </c>
       <c r="N90" s="3"/>
-      <c r="P90" s="3"/>
+      <c r="P90" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2162,7 +2336,7 @@
       </c>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="P91" s="3"/>
+      <c r="P91" s="4"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2172,7 +2346,7 @@
       </c>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="P92" s="3"/>
+      <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2182,7 +2356,7 @@
       </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-      <c r="P93" s="3"/>
+      <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
@@ -2198,7 +2372,9 @@
         <v>9</v>
       </c>
       <c r="N94" s="3"/>
-      <c r="P94" s="3"/>
+      <c r="P94" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -2208,7 +2384,7 @@
       </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-      <c r="P95" s="3"/>
+      <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2218,7 +2394,7 @@
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="P96" s="3"/>
+      <c r="P96" s="4"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2237,7 +2413,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
-      <c r="P97" s="3"/>
+      <c r="P97" s="4"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -2302,7 +2478,9 @@
         <v>10</v>
       </c>
       <c r="N102" s="3"/>
-      <c r="P102" s="3"/>
+      <c r="P102" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
@@ -2315,7 +2493,7 @@
       </c>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
-      <c r="P103" s="3"/>
+      <c r="P103" s="4"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
@@ -2328,7 +2506,7 @@
       </c>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
-      <c r="P104" s="3"/>
+      <c r="P104" s="4"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
@@ -2341,7 +2519,7 @@
       </c>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
-      <c r="P105" s="3"/>
+      <c r="P105" s="4"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -2455,7 +2633,9 @@
         <v>9</v>
       </c>
       <c r="N114" s="3"/>
-      <c r="P114" s="3"/>
+      <c r="P114" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
@@ -2559,7 +2739,9 @@
         <v>6</v>
       </c>
       <c r="N122" s="3"/>
-      <c r="P122" s="3"/>
+      <c r="P122" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
@@ -2611,7 +2793,9 @@
         <v>7</v>
       </c>
       <c r="N126" s="3"/>
-      <c r="P126" s="3"/>
+      <c r="P126" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
@@ -2675,7 +2859,9 @@
         <v>8</v>
       </c>
       <c r="N130" s="3"/>
-      <c r="P130" s="3"/>
+      <c r="P130" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
@@ -2688,7 +2874,7 @@
       </c>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
-      <c r="P131" s="3"/>
+      <c r="P131" s="4"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -2701,7 +2887,7 @@
       </c>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
-      <c r="P132" s="3"/>
+      <c r="P132" s="4"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -2714,7 +2900,7 @@
       </c>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
-      <c r="P133" s="3"/>
+      <c r="P133" s="4"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
@@ -2733,7 +2919,9 @@
         <v>8</v>
       </c>
       <c r="N134" s="3"/>
-      <c r="P134" s="3"/>
+      <c r="P134" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -2756,7 +2944,7 @@
       </c>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
-      <c r="P135" s="3"/>
+      <c r="P135" s="4"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -2779,7 +2967,7 @@
       </c>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
-      <c r="P136" s="3"/>
+      <c r="P136" s="4"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -2789,7 +2977,7 @@
       </c>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
-      <c r="P137" s="3"/>
+      <c r="P137" s="4"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
@@ -3082,7 +3270,9 @@
         <v>6</v>
       </c>
       <c r="N154" s="3"/>
-      <c r="P154" s="3"/>
+      <c r="P154" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -3339,7 +3529,9 @@
         <v>10</v>
       </c>
       <c r="N170" s="3"/>
-      <c r="P170" s="3"/>
+      <c r="P170" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
@@ -3513,7 +3705,9 @@
         <v>10</v>
       </c>
       <c r="N182" s="3"/>
-      <c r="P182" s="3"/>
+      <c r="P182" s="3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
@@ -3571,7 +3765,9 @@
         <v>10</v>
       </c>
       <c r="N186" s="3"/>
-      <c r="P186" s="3"/>
+      <c r="P186" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
@@ -3769,106 +3965,139 @@
     </row>
   </sheetData>
   <mergeCells count="257">
-    <mergeCell ref="P182:P185"/>
-    <mergeCell ref="P186:P189"/>
-    <mergeCell ref="P190:P193"/>
-    <mergeCell ref="P194:P197"/>
-    <mergeCell ref="P146:P149"/>
-    <mergeCell ref="P150:P153"/>
-    <mergeCell ref="P154:P157"/>
-    <mergeCell ref="P158:P161"/>
-    <mergeCell ref="P162:P165"/>
-    <mergeCell ref="P166:P169"/>
-    <mergeCell ref="P170:P173"/>
-    <mergeCell ref="P174:P177"/>
-    <mergeCell ref="P178:P181"/>
-    <mergeCell ref="P110:P113"/>
-    <mergeCell ref="P114:P117"/>
-    <mergeCell ref="P118:P121"/>
-    <mergeCell ref="P122:P125"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="P130:P133"/>
-    <mergeCell ref="P134:P137"/>
-    <mergeCell ref="P138:P141"/>
-    <mergeCell ref="P142:P145"/>
-    <mergeCell ref="P74:P77"/>
-    <mergeCell ref="P78:P81"/>
-    <mergeCell ref="P82:P85"/>
-    <mergeCell ref="P86:P89"/>
-    <mergeCell ref="P90:P93"/>
-    <mergeCell ref="P94:P97"/>
-    <mergeCell ref="P98:P101"/>
-    <mergeCell ref="P102:P105"/>
-    <mergeCell ref="P106:P109"/>
-    <mergeCell ref="P38:P41"/>
-    <mergeCell ref="P42:P45"/>
-    <mergeCell ref="P46:P49"/>
-    <mergeCell ref="P50:P53"/>
-    <mergeCell ref="P54:P57"/>
-    <mergeCell ref="P58:P61"/>
-    <mergeCell ref="P62:P65"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="P70:P73"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="P22:P25"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="P30:P33"/>
-    <mergeCell ref="P34:P37"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="M202:M205"/>
-    <mergeCell ref="N202:N205"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="M206:M209"/>
-    <mergeCell ref="N206:N209"/>
-    <mergeCell ref="M198:M201"/>
-    <mergeCell ref="N198:N201"/>
-    <mergeCell ref="N162:N165"/>
-    <mergeCell ref="M166:M169"/>
-    <mergeCell ref="N166:N169"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="M150:M153"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="M154:M157"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="N194:N197"/>
-    <mergeCell ref="N182:N185"/>
-    <mergeCell ref="M186:M189"/>
-    <mergeCell ref="N186:N189"/>
-    <mergeCell ref="M190:M193"/>
-    <mergeCell ref="N190:N193"/>
-    <mergeCell ref="N170:N173"/>
-    <mergeCell ref="M174:M177"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="M178:M181"/>
-    <mergeCell ref="N178:N181"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A174:A177"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="A182:A185"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="M90:M93"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="M94:M97"/>
+    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="M98:M101"/>
+    <mergeCell ref="N98:N101"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="M82:M85"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="M86:M89"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="M102:M105"/>
+    <mergeCell ref="M106:M109"/>
+    <mergeCell ref="M110:M113"/>
+    <mergeCell ref="N102:N105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="N106:N109"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A153"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="B142:B145"/>
     <mergeCell ref="M122:M125"/>
     <mergeCell ref="M134:M137"/>
     <mergeCell ref="M146:M149"/>
@@ -3893,139 +4122,106 @@
     <mergeCell ref="N130:N133"/>
     <mergeCell ref="N158:N161"/>
     <mergeCell ref="M162:M165"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A153"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="M102:M105"/>
-    <mergeCell ref="M106:M109"/>
-    <mergeCell ref="M110:M113"/>
-    <mergeCell ref="N102:N105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="N106:N109"/>
-    <mergeCell ref="M90:M93"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="M94:M97"/>
-    <mergeCell ref="N94:N97"/>
-    <mergeCell ref="M98:M101"/>
-    <mergeCell ref="N98:N101"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="M82:M85"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="M86:M89"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="N162:N165"/>
+    <mergeCell ref="M166:M169"/>
+    <mergeCell ref="N166:N169"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="M150:M153"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="M154:M157"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="N194:N197"/>
+    <mergeCell ref="N182:N185"/>
+    <mergeCell ref="M186:M189"/>
+    <mergeCell ref="N186:N189"/>
+    <mergeCell ref="M190:M193"/>
+    <mergeCell ref="N190:N193"/>
+    <mergeCell ref="N170:N173"/>
+    <mergeCell ref="M174:M177"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="M178:M181"/>
+    <mergeCell ref="N178:N181"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="M202:M205"/>
+    <mergeCell ref="N202:N205"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="M206:M209"/>
+    <mergeCell ref="N206:N209"/>
+    <mergeCell ref="M198:M201"/>
+    <mergeCell ref="N198:N201"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="P34:P37"/>
+    <mergeCell ref="P38:P41"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="P46:P49"/>
+    <mergeCell ref="P50:P53"/>
+    <mergeCell ref="P54:P57"/>
+    <mergeCell ref="P58:P61"/>
+    <mergeCell ref="P62:P65"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="P70:P73"/>
+    <mergeCell ref="P74:P77"/>
+    <mergeCell ref="P78:P81"/>
+    <mergeCell ref="P82:P85"/>
+    <mergeCell ref="P86:P89"/>
+    <mergeCell ref="P90:P93"/>
+    <mergeCell ref="P94:P97"/>
+    <mergeCell ref="P98:P101"/>
+    <mergeCell ref="P102:P105"/>
+    <mergeCell ref="P106:P109"/>
+    <mergeCell ref="P110:P113"/>
+    <mergeCell ref="P114:P117"/>
+    <mergeCell ref="P118:P121"/>
+    <mergeCell ref="P122:P125"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="P130:P133"/>
+    <mergeCell ref="P134:P137"/>
+    <mergeCell ref="P138:P141"/>
+    <mergeCell ref="P142:P145"/>
+    <mergeCell ref="P182:P185"/>
+    <mergeCell ref="P186:P189"/>
+    <mergeCell ref="P190:P193"/>
+    <mergeCell ref="P194:P197"/>
+    <mergeCell ref="P146:P149"/>
+    <mergeCell ref="P150:P153"/>
+    <mergeCell ref="P154:P157"/>
+    <mergeCell ref="P158:P161"/>
+    <mergeCell ref="P162:P165"/>
+    <mergeCell ref="P166:P169"/>
+    <mergeCell ref="P170:P173"/>
+    <mergeCell ref="P174:P177"/>
+    <mergeCell ref="P178:P181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
